--- a/blueprint-jira-better-excel/Rocket-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Rocket-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{394621D6-822C-4608-94F6-4FC9EEB3DCBC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{41697287-4A8B-4553-9986-4E176893DB66}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Issues!$AJ$1:$AJ$105</definedName>
-    <definedName name="issues">OFFSET(Issues!$A$1,0,0,COUNTA(Issues!$A$1:$A$10003),COUNTA(Issues!$A$1:$AAP$1) - 1)</definedName>
+    <definedName name="issues">OFFSET(Issues!$A$1,0,0,COUNTA(Issues!$A$1:$A$10003),COUNTA(Issues!$A$1:$AAQ$1) - 1)</definedName>
     <definedName name="Table10" localSheetId="3">Table15[Stabilization and Holidays]</definedName>
     <definedName name="Table10">Table15[Stabilization and Holidays]</definedName>
   </definedNames>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="290">
   <si>
     <t>Status</t>
   </si>
@@ -888,6 +888,36 @@
   <si>
     <t>Release, CPM, UME v2</t>
   </si>
+  <si>
+    <t>CI/CD</t>
+  </si>
+  <si>
+    <t>DevOps Type</t>
+  </si>
+  <si>
+    <t>${bpHelper.getDevOpsType(issue)}</t>
+  </si>
+  <si>
+    <t>Development/Internal Support</t>
+  </si>
+  <si>
+    <t>Production Support</t>
+  </si>
+  <si>
+    <t>Planned - Deployment and Release</t>
+  </si>
+  <si>
+    <t>Planned - Operational Efficiency</t>
+  </si>
+  <si>
+    <t>Planned - Platform Health</t>
+  </si>
+  <si>
+    <t>Planned - Security</t>
+  </si>
+  <si>
+    <t>Time Off / Conferences</t>
+  </si>
 </sst>
 </file>
 
@@ -1447,6 +1477,46 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1609,46 +1679,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1814,10 +1844,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0</c:v>
+                  <c:v>0.10526315789473684</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.89473684210526316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4736,10 +4766,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0</c:v>
+                  <c:v>0.10526315789473684</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.89473684210526316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7839,10 +7869,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.6785714285714286</c:v>
+                  <c:v>0.77501406162114872</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3214285714285714</c:v>
+                  <c:v>0.22498593837885128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8050,10 +8080,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0</c:v>
+                  <c:v>0.10526315789473684</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.89473684210526316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10960,7 +10990,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1040</c:v>
+                  <c:v>1640.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14281,10 +14311,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>60</c:v>
@@ -15332,7 +15362,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.6785714285714286</c:v>
+                  <c:v>0.77501406162114872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18444,7 +18474,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>950</c:v>
+                  <c:v>1550.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>120</c:v>
@@ -18456,7 +18486,7 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1040</c:v>
+                  <c:v>1640.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19082,6 +19112,18 @@
           <a:effectLst/>
         </c:spPr>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -19229,6 +19271,26 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-3D6E-4B6C-AD39-328EF0D57EF8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:solidFill>
@@ -19303,16 +19365,16 @@
                   <c:v>UME v2</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>CI/CD</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>DevOps</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>R&amp;D Bucket</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Other</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>(blank)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -19327,16 +19389,16 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200</c:v>
+                  <c:v>200.125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>200</c:v>
@@ -20029,7 +20091,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1400</c:v>
+                  <c:v>2000.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20241,7 +20303,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>950</c:v>
+                  <c:v>1550.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20881,10 +20943,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0</c:v>
+                  <c:v>0.10526315789473684</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.89473684210526316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -38490,9 +38552,9 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>628663</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:rowOff>64661</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1147762" cy="405432"/>
+    <xdr:ext cx="1147762" cy="342786"/>
     <xdr:sp macro="" textlink="_ReleaseData!$B$39">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="TextBox 6">
@@ -38506,8 +38568,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6457963" y="1662113"/>
-          <a:ext cx="1147762" cy="405432"/>
+          <a:off x="6457963" y="1693436"/>
+          <a:ext cx="1147762" cy="342786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -38536,7 +38598,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:fld id="{44BEFE24-5656-4FE3-ABAD-264A19ED0C2F}" type="TxLink">
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
+            <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="bg2">
                   <a:lumMod val="50000"/>
@@ -38546,9 +38608,9 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>2380</a:t>
+            <a:t>3580.25</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="2000" b="1">
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
             <a:solidFill>
               <a:schemeClr val="bg2">
                 <a:lumMod val="50000"/>
@@ -39241,7 +39303,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>0%</a:t>
+            <a:t>11%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -39881,7 +39943,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>0%</a:t>
+            <a:t>11%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -39942,7 +40004,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>68%</a:t>
+            <a:t>78%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -39960,14 +40022,14 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.36798</cdr:x>
-      <cdr:y>0.44579</cdr:y>
+      <cdr:x>0.37156</cdr:x>
+      <cdr:y>0.46937</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.62724</cdr:x>
-      <cdr:y>0.56688</cdr:y>
+      <cdr:x>0.63082</cdr:x>
+      <cdr:y>0.57175</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="_ReleaseData!$B$60">
+    <cdr:sp macro="" textlink="_ReleaseData!$B$65">
       <cdr:nvSpPr>
         <cdr:cNvPr id="2" name="TextBox 6">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -39980,8 +40042,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1466847" y="1492513"/>
-          <a:ext cx="1033465" cy="405432"/>
+          <a:off x="1481117" y="1571471"/>
+          <a:ext cx="1033466" cy="342772"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -40100,8 +40162,8 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{4E61AECC-3EDA-497E-9584-05DE28D958EC}" type="TxLink">
-            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike">
+          <a:fld id="{BE7DE67F-FB10-403D-96C7-3AC27984C031}" type="TxLink">
+            <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="bg2">
                   <a:lumMod val="50000"/>
@@ -40111,9 +40173,9 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>200</a:t>
+            <a:t>2000.125</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="2000" b="1">
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
             <a:solidFill>
               <a:schemeClr val="bg2">
                 <a:lumMod val="50000"/>
@@ -40557,7 +40619,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>0%</a:t>
+            <a:t>11%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41064,7 +41126,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>0%</a:t>
+            <a:t>11%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41081,11 +41143,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43396.334546527774" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43404.614443287035" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
-  <cacheFields count="47">
+  <cacheFields count="48">
     <cacheField name="Key" numFmtId="0">
       <sharedItems/>
     </cacheField>
@@ -41209,7 +41271,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Epic Total Estimate" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="200" maxValue="200"/>
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="200" maxValue="200.125"/>
     </cacheField>
     <cacheField name="Epic Remaining Estimate" numFmtId="0">
       <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="150" maxValue="150"/>
@@ -41351,7 +41413,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Rocket Component" numFmtId="0">
-      <sharedItems containsBlank="1" count="11">
+      <sharedItems containsBlank="1" count="12">
         <s v="${bpHelper.getRocketComponent(issue)}"/>
         <m/>
         <s v="UME v2"/>
@@ -41360,6 +41422,7 @@
         <s v="DevOps"/>
         <s v="R&amp;D Bucket"/>
         <s v="Other"/>
+        <s v="CI/CD"/>
         <s v="UME" u="1"/>
         <s v="Cross Project Move" u="1"/>
         <s v="Artifact List v2" u="1"/>
@@ -41400,6 +41463,9 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Different Story Points" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="DevOps Task Type" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Backlog Health" numFmtId="0">
@@ -41470,6 +41536,7 @@
     <s v="${bpHelper.getValidationEstimate(issue)}"/>
     <s v="$[IF(B2=&quot;Epic&quot;, IF(AND(IFERROR(VALUE(P2), 0)&gt;0, P2=W2), &quot;Yes&quot;, &quot;No&quot;), &quot;&quot;)]"/>
     <s v="$[IF(OR(B2=&quot;Bug&quot;, B2=&quot;Epic&quot;),&quot;&quot;,IF(D2=V2, 0, N2))]"/>
+    <s v="${fieldHelper.getFieldValueByName(issue, &quot;DevOps Task Type&quot;)}"/>
     <x v="0"/>
   </r>
   <r>
@@ -41517,6 +41584,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -41564,6 +41632,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -41606,6 +41675,7 @@
     <m/>
     <x v="3"/>
     <s v="NW"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -41658,6 +41728,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="2"/>
   </r>
   <r>
@@ -41705,6 +41776,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="2"/>
   </r>
   <r>
@@ -41752,6 +41824,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="3"/>
   </r>
   <r>
@@ -41799,6 +41872,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="3"/>
   </r>
   <r>
@@ -41846,6 +41920,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="3"/>
   </r>
   <r>
@@ -41893,6 +41968,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -41940,6 +42016,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -41981,6 +42058,7 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -42034,6 +42112,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="2"/>
   </r>
   <r>
@@ -42081,6 +42160,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -42128,6 +42208,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -42175,6 +42256,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -42222,6 +42304,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -42269,6 +42352,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -42316,6 +42400,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -42363,6 +42448,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -42410,6 +42496,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -42457,6 +42544,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -42504,6 +42592,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -42551,6 +42640,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -42592,6 +42682,7 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -42645,6 +42736,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -42692,6 +42784,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -42733,6 +42826,7 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -42786,6 +42880,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -42833,6 +42928,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -42880,6 +42976,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -42927,6 +43024,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -42974,6 +43072,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -43021,6 +43120,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -43068,6 +43168,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -43115,6 +43216,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -43162,6 +43264,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -43203,6 +43306,7 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -43256,6 +43360,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -43303,6 +43408,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -43350,6 +43456,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -43397,6 +43504,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -43444,6 +43552,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -43491,6 +43600,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -43538,6 +43648,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -43585,6 +43696,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -43626,6 +43738,7 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -43679,6 +43792,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -43726,6 +43840,7 @@
     <n v="40"/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -43773,6 +43888,7 @@
     <n v="40"/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -43811,13 +43927,14 @@
     <x v="2"/>
     <x v="1"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="2"/>
     <m/>
     <x v="6"/>
     <m/>
     <n v="30"/>
     <n v="60"/>
     <n v="40"/>
+    <m/>
     <m/>
     <m/>
     <x v="1"/>
@@ -43867,6 +43984,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -43914,6 +44032,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -43961,6 +44080,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -44008,6 +44128,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -44055,6 +44176,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -44102,6 +44224,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -44149,6 +44272,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -44196,6 +44320,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -44243,6 +44368,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -44290,6 +44416,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -44337,6 +44464,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -44384,6 +44512,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -44431,6 +44560,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -44478,6 +44608,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -44525,6 +44656,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -44572,6 +44704,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -44619,6 +44752,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -44666,6 +44800,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -44713,6 +44848,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -44754,6 +44890,7 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -44807,6 +44944,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -44854,6 +44992,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -44901,6 +45040,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -44948,47 +45088,145 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
     <s v="key"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
     <x v="2"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="200"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
     <m/>
     <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="key"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="16"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="30"/>
+    <m/>
+    <n v="200"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="key"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="16"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="30"/>
+    <m/>
+    <n v="200.125"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="8"/>
+    <m/>
+    <x v="2"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -45029,13 +45267,14 @@
     <m/>
     <m/>
     <x v="1"/>
+    <x v="4"/>
     <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="5"/>
-    <m/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -45076,13 +45315,14 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="5"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -45123,13 +45363,14 @@
     <m/>
     <m/>
     <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
     <x v="4"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <x v="6"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -45170,13 +45411,14 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="5"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <x v="5"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="3"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -45217,13 +45459,14 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="6"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="2"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -45264,13 +45507,14 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="7"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
     <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -45311,13 +45555,14 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="5"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -45358,13 +45603,14 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <x v="6"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="4"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -45405,13 +45651,14 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <x v="5"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="3"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -45452,13 +45699,14 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="5"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <x v="4"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="2"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -45499,13 +45747,14 @@
     <m/>
     <m/>
     <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
     <x v="6"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <x v="3"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -45546,13 +45795,14 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="7"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="5"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -45563,137 +45813,44 @@
   </r>
   <r>
     <s v="key"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <x v="16"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <n v="30"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="key"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <x v="16"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <n v="30"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="key"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -45747,6 +45904,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -45794,6 +45952,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -45841,6 +46000,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -45888,6 +46048,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -45935,6 +46096,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -45982,6 +46144,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -46029,6 +46192,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -46076,6 +46240,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -46123,6 +46288,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -46170,6 +46336,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -46217,6 +46384,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -46264,6 +46432,7 @@
     <m/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
@@ -46305,6 +46474,7 @@
     <x v="1"/>
     <m/>
     <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -46317,10 +46487,1532 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A53:B61" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D28:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="46" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="47" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="21">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J39:J40" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="32" item="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="47" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G4:H5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="2"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="37"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A5:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="10" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="50">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="51">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="52">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="55">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B4:C11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="27">
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item m="1" x="12"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D4:E12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="31">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="8"/>
+        <item m="1" x="26"/>
+        <item m="1" x="20"/>
+        <item m="1" x="15"/>
+        <item m="1" x="12"/>
+        <item m="1" x="9"/>
+        <item m="1" x="27"/>
+        <item m="1" x="14"/>
+        <item m="1" x="29"/>
+        <item m="1" x="24"/>
+        <item m="1" x="18"/>
+        <item m="1" x="13"/>
+        <item m="1" x="10"/>
+        <item m="1" x="16"/>
+        <item m="1" x="17"/>
+        <item m="1" x="19"/>
+        <item m="1" x="21"/>
+        <item m="1" x="22"/>
+        <item m="1" x="23"/>
+        <item m="1" x="25"/>
+        <item m="1" x="28"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="30" item="24" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:C36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="9">
         <item x="0"/>
@@ -46336,34 +48028,127 @@
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="27">
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="6">
         <item x="0"/>
@@ -46376,58 +48161,57 @@
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
         <item x="0"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="8"/>
         <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item m="1" x="8"/>
-        <item x="2"/>
+        <item h="1" m="1" x="11"/>
         <item x="5"/>
-        <item x="6"/>
         <item x="7"/>
         <item x="1"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="35"/>
+    <field x="31"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="7">
     <i>
-      <x v="3"/>
+      <x v="20"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="21"/>
     </i>
     <i>
-      <x v="6"/>
+      <x v="22"/>
     </i>
     <i>
-      <x v="7"/>
+      <x v="23"/>
     </i>
     <i>
-      <x v="8"/>
+      <x v="24"/>
     </i>
     <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
+      <x v="25"/>
     </i>
     <i t="grand">
       <x/>
@@ -46436,19 +48220,279 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="2">
-    <pageField fld="1" item="2" hier="-1"/>
+  <pageFields count="4">
     <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="2" format="10" series="1">
+  <chartFormats count="2">
+    <chartFormat chart="2" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="31" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -46459,8 +48503,8 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="1"/>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -46471,8 +48515,8 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="9"/>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
@@ -46483,79 +48527,145 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="8"/>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="18">
+    <chartFormat chart="3" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="35" count="1" selected="0">
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
             <x v="5"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="19">
+    <chartFormat chart="3" format="23">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="10"/>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="20">
+    <chartFormat chart="4" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="35" count="1" selected="0">
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="21">
+    <chartFormat chart="4" format="27">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="35" count="1" selected="0">
+          <reference field="33" count="1" selected="0">
             <x v="4"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="22">
+    <chartFormat chart="4" format="28">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="7"/>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="23">
+    <chartFormat chart="4" format="29">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="35" count="1" selected="0">
+          <reference field="33" count="1" selected="0">
             <x v="6"/>
           </reference>
         </references>
@@ -46574,10 +48684,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
-  <location ref="J28:K33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="47">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB4:AD9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="48">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="9">
@@ -46600,6 +48710,142 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G39:G40" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="8">
         <item x="0"/>
@@ -46616,7 +48862,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -46649,11 +48895,123 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="5" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+  <location ref="J28:K33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
@@ -46687,11 +49045,11 @@
     <pageField fld="10" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="5">
-    <dataField name="Done" fld="45" baseField="0" baseItem="32"/>
+    <dataField name="Done" fld="46" baseField="0" baseItem="32"/>
     <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
     <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
     <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="46" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="47" baseField="0" baseItem="32"/>
   </dataFields>
   <chartFormats count="33">
     <chartFormat chart="0" format="7" series="1">
@@ -47010,1760 +49368,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="32" item="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="46" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G4:H5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="2"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="37"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" hier="-1"/>
-    <pageField fld="44" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A5:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="10" format="49" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="50">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="51">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="52">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="53">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="54">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="55">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="B4:C11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="27">
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item m="1" x="12"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D4:E12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="31">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="8"/>
-        <item m="1" x="26"/>
-        <item m="1" x="20"/>
-        <item m="1" x="15"/>
-        <item m="1" x="12"/>
-        <item m="1" x="9"/>
-        <item m="1" x="27"/>
-        <item m="1" x="14"/>
-        <item m="1" x="29"/>
-        <item m="1" x="24"/>
-        <item m="1" x="18"/>
-        <item m="1" x="13"/>
-        <item m="1" x="10"/>
-        <item m="1" x="16"/>
-        <item m="1" x="17"/>
-        <item m="1" x="19"/>
-        <item m="1" x="21"/>
-        <item m="1" x="22"/>
-        <item m="1" x="23"/>
-        <item m="1" x="25"/>
-        <item m="1" x="28"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="24" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:C36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="27">
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item h="1" x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="28">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="29">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D39:D40" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="47">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A28:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="48">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="9">
@@ -48786,23 +49394,12 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -48835,318 +49432,12 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A38:A39" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="3" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J39:J40" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A28:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
@@ -49179,11 +49470,11 @@
     <pageField fld="1" hier="-1"/>
   </pageFields>
   <dataFields count="5">
-    <dataField name="Done" fld="45" baseField="0" baseItem="32"/>
+    <dataField name="Done" fld="46" baseField="0" baseItem="32"/>
     <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
     <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
     <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="46" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="47" baseField="0" baseItem="32"/>
   </dataFields>
   <chartFormats count="15">
     <chartFormat chart="0" format="7" series="1">
@@ -49343,7 +49634,7 @@
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
   <location ref="G28:H33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="47">
+  <pivotFields count="48">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="9">
@@ -49420,6 +49711,7 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
@@ -49453,11 +49745,11 @@
     <pageField fld="10" item="5" hier="-1"/>
   </pageFields>
   <dataFields count="5">
-    <dataField name="Done" fld="45" baseField="0" baseItem="32"/>
+    <dataField name="Done" fld="46" baseField="0" baseItem="32"/>
     <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
     <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
     <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="46" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="47" baseField="0" baseItem="32"/>
   </dataFields>
   <chartFormats count="27">
     <chartFormat chart="0" format="7" series="1">
@@ -49723,20 +50015,20 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G39:G40" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A53:B61" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
+        <item x="0"/>
+        <item x="6"/>
         <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -49748,18 +50040,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49793,60 +50074,20 @@
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="5" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D28:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="47">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="10"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item m="1" x="9"/>
         <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -49858,125 +50099,52 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="-2"/>
+    <field x="35"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="8">
     <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
       <x v="3"/>
     </i>
-    <i i="4">
+    <i>
       <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
     </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="3">
+  <pageFields count="2">
+    <pageField fld="1" item="2" hier="-1"/>
     <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="4" hier="-1"/>
   </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="45" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="46" baseField="0" baseItem="32"/>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
   </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
+  <chartFormats count="11">
+    <chartFormat chart="2" format="10" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -49985,164 +50153,122 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
+    <chartFormat chart="2" format="15">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="11">
+    <chartFormat chart="2" format="16">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="10"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="12">
+    <chartFormat chart="2" format="17">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="9"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="13">
+    <chartFormat chart="2" format="18">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="14">
+    <chartFormat chart="2" format="19">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
             <x v="4"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="15">
+    <chartFormat chart="2" format="22">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
+    <chartFormat chart="2" format="23">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="6"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="23">
+    <chartFormat chart="2" format="24">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
+          <reference field="35" count="1" selected="0">
+            <x v="7"/>
           </reference>
         </references>
       </pivotArea>
@@ -50160,10 +50286,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB4:AD9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="47">
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A38:A39" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="48">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="9">
@@ -50186,39 +50312,28 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="6">
         <item x="0"/>
@@ -50230,7 +50345,7 @@
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50240,48 +50355,134 @@
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
+  <rowItems count="1">
+    <i/>
   </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
   <pageFields count="2">
+    <pageField fld="32" item="3" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="13" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D39:D40" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
     <pageField fld="32" item="4" hier="-1"/>
     <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="4" hier="-1"/>
   </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -50296,26 +50497,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="D2:E4" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="D2:E4" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="D2:E4" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Start Date" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="End Date" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Start Date" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="End Date" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="Z2:Z5" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="Z2:Z5" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="Z2:Z5" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Stabilization and Holidays" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Stabilization and Holidays" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -50344,10 +50545,10 @@
   </autoFilter>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Sprint"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Epics New" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Epics New" dataDxfId="6">
       <calculatedColumnFormula>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Stories Ready" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Stories Ready" dataDxfId="5">
       <calculatedColumnFormula>GETPIVOTDATA("Story Points",#REF!)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -50365,7 +50566,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Sprint" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="R&amp;D" totalsRowFunction="sum"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Total" totalsRowFunction="sum" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Total" totalsRowFunction="sum" dataDxfId="4">
       <calculatedColumnFormula>SUM(L6:L6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -52482,7 +52683,7 @@
         <v>250</v>
       </c>
       <c r="C5" s="20">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s">
         <v>197</v>
@@ -52499,7 +52700,7 @@
         <v>251</v>
       </c>
       <c r="C6" s="20">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
         <v>250</v>
@@ -52574,7 +52775,7 @@
         <v>50</v>
       </c>
       <c r="C11" s="20">
-        <v>420</v>
+        <v>360</v>
       </c>
       <c r="K11" t="s">
         <v>255</v>
@@ -53001,7 +53202,7 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AT105"/>
+  <dimension ref="A1:AU105"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -53054,11 +53255,12 @@
     <col min="42" max="42" width="21.53125" style="5" customWidth="1"/>
     <col min="43" max="43" width="19.86328125" style="5" customWidth="1"/>
     <col min="44" max="44" width="18.796875" style="5" customWidth="1"/>
-    <col min="45" max="45" width="13.73046875" style="5" customWidth="1"/>
-    <col min="46" max="16384" width="9.1328125" style="3"/>
+    <col min="45" max="45" width="20.6640625" style="5" customWidth="1"/>
+    <col min="46" max="46" width="13.73046875" style="5" customWidth="1"/>
+    <col min="47" max="16384" width="9.1328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -53192,13 +53394,16 @@
         <v>48</v>
       </c>
       <c r="AS1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="5" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:47" s="5" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>67</v>
       </c>
@@ -53332,18 +53537,21 @@
         <v>225</v>
       </c>
       <c r="AS2" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT2" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="AT2" s="5" t="s">
+      <c r="AU2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>51</v>
       </c>
@@ -53383,7 +53591,7 @@
       <c r="AP4" s="4"/>
       <c r="AQ4" s="4"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>51</v>
       </c>
@@ -53424,11 +53632,11 @@
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
       <c r="AQ5" s="4"/>
-      <c r="AS5" s="5" t="s">
+      <c r="AT5" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -53470,11 +53678,11 @@
       <c r="AO6" s="4"/>
       <c r="AP6" s="4"/>
       <c r="AQ6" s="4"/>
-      <c r="AS6" s="5" t="s">
+      <c r="AT6" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>51</v>
       </c>
@@ -53513,11 +53721,11 @@
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="4"/>
-      <c r="AS7" s="5" t="s">
+      <c r="AT7" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>51</v>
       </c>
@@ -53553,11 +53761,11 @@
       <c r="AO8" s="4"/>
       <c r="AP8" s="4"/>
       <c r="AQ8" s="4"/>
-      <c r="AS8" s="5" t="s">
+      <c r="AT8" s="5" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
@@ -53593,11 +53801,11 @@
       <c r="AO9" s="4"/>
       <c r="AP9" s="4"/>
       <c r="AQ9" s="4"/>
-      <c r="AS9" s="5" t="s">
+      <c r="AT9" s="5" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -53630,11 +53838,11 @@
       <c r="AO10" s="4"/>
       <c r="AP10" s="4"/>
       <c r="AQ10" s="4"/>
-      <c r="AS10" s="5" t="s">
+      <c r="AT10" s="5" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>51</v>
       </c>
@@ -53665,7 +53873,7 @@
       <c r="AP11" s="4"/>
       <c r="AQ11" s="4"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>51</v>
       </c>
@@ -53699,7 +53907,7 @@
       <c r="AP12" s="4"/>
       <c r="AQ12" s="4"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>51</v>
       </c>
@@ -53727,7 +53935,7 @@
       <c r="AP13" s="4"/>
       <c r="AQ13" s="4"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>51</v>
       </c>
@@ -53759,11 +53967,11 @@
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
       <c r="AQ14" s="4"/>
-      <c r="AS14" s="5" t="s">
+      <c r="AT14" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:46" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:47" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>51</v>
       </c>
@@ -53791,10 +53999,13 @@
       <c r="AP15" s="4"/>
       <c r="AQ15" s="4"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="B16" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="E16" s="19" t="s">
         <v>104</v>
       </c>
@@ -53804,11 +54015,17 @@
       <c r="AF16" s="5" t="s">
         <v>254</v>
       </c>
+      <c r="AS16" s="5" t="s">
+        <v>283</v>
+      </c>
     </row>
-    <row r="17" spans="1:35" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:45" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="B17" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="E17" s="19" t="s">
         <v>105</v>
       </c>
@@ -53818,11 +54035,17 @@
       <c r="AF17" s="5" t="s">
         <v>255</v>
       </c>
+      <c r="AS17" s="5" t="s">
+        <v>284</v>
+      </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="B18" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="E18" s="19" t="s">
         <v>106</v>
       </c>
@@ -53832,11 +54055,17 @@
       <c r="AF18" s="5" t="s">
         <v>250</v>
       </c>
+      <c r="AS18" s="5" t="s">
+        <v>285</v>
+      </c>
     </row>
-    <row r="19" spans="1:35" ht="39.4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:45" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="B19" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="E19" s="19" t="s">
         <v>107</v>
       </c>
@@ -53846,11 +54075,17 @@
       <c r="AF19" s="5" t="s">
         <v>251</v>
       </c>
+      <c r="AS19" s="5" t="s">
+        <v>286</v>
+      </c>
     </row>
-    <row r="20" spans="1:35" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:45" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="B20" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="E20" s="19" t="s">
         <v>108</v>
       </c>
@@ -53860,11 +54095,17 @@
       <c r="AF20" s="5" t="s">
         <v>252</v>
       </c>
+      <c r="AS20" s="5" t="s">
+        <v>287</v>
+      </c>
     </row>
-    <row r="21" spans="1:35" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:45" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="B21" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="E21" s="19" t="s">
         <v>109</v>
       </c>
@@ -53874,11 +54115,17 @@
       <c r="AF21" s="5" t="s">
         <v>253</v>
       </c>
+      <c r="AS21" s="5" t="s">
+        <v>288</v>
+      </c>
     </row>
-    <row r="22" spans="1:35" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:45" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="B22" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="E22" s="19" t="s">
         <v>110</v>
       </c>
@@ -53888,8 +54135,11 @@
       <c r="AF22" s="5" t="s">
         <v>254</v>
       </c>
+      <c r="AS22" s="5" t="s">
+        <v>289</v>
+      </c>
     </row>
-    <row r="23" spans="1:35" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:45" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
         <v>51</v>
       </c>
@@ -53903,7 +54153,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
         <v>51</v>
       </c>
@@ -53917,7 +54167,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>51</v>
       </c>
@@ -53931,7 +54181,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>51</v>
       </c>
@@ -53939,7 +54189,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
         <v>51</v>
       </c>
@@ -53953,7 +54203,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:45" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
         <v>51</v>
       </c>
@@ -53961,7 +54211,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
         <v>51</v>
       </c>
@@ -53969,7 +54219,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:45" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
         <v>51</v>
       </c>
@@ -53989,7 +54239,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
         <v>51</v>
       </c>
@@ -54009,7 +54259,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="39.4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:45" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
         <v>51</v>
       </c>
@@ -54412,6 +54662,9 @@
       <c r="AI52" s="5" t="s">
         <v>153</v>
       </c>
+      <c r="AJ52" s="10" t="s">
+        <v>277</v>
+      </c>
       <c r="AL52" s="4" t="s">
         <v>58</v>
       </c>
@@ -54988,6 +55241,12 @@
     <row r="77" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A77" s="5" t="s">
         <v>51</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P77" s="5">
+        <v>200</v>
       </c>
       <c r="AG77" s="5" t="s">
         <v>227</v>
@@ -55002,13 +55261,16 @@
         <v>51</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E78" s="19" t="s">
         <v>106</v>
       </c>
       <c r="N78" s="5">
         <v>30</v>
+      </c>
+      <c r="P78" s="5">
+        <v>200</v>
       </c>
       <c r="AF78" s="5" t="s">
         <v>250</v>
@@ -55028,7 +55290,7 @@
         <v>51</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E79" s="19" t="s">
         <v>106</v>
@@ -55036,11 +55298,17 @@
       <c r="N79" s="5">
         <v>30</v>
       </c>
+      <c r="P79" s="5">
+        <v>200.125</v>
+      </c>
       <c r="AF79" s="5" t="s">
         <v>251</v>
       </c>
       <c r="AG79" s="5" t="s">
         <v>227</v>
+      </c>
+      <c r="AJ79" s="5" t="s">
+        <v>280</v>
       </c>
       <c r="AL79" s="4" t="s">
         <v>56</v>
@@ -55062,6 +55330,9 @@
       <c r="AF80" s="5" t="s">
         <v>252</v>
       </c>
+      <c r="AG80" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="AL80" s="4" t="s">
         <v>58</v>
       </c>
@@ -55335,7 +55606,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="97" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A97" s="5" t="s">
         <v>51</v>
       </c>
@@ -55346,7 +55617,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="98" spans="1:45" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:46" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A98" s="5" t="s">
         <v>51</v>
       </c>
@@ -55357,7 +55628,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="99" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A99" s="5" t="s">
         <v>51</v>
       </c>
@@ -55368,7 +55639,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="100" spans="1:45" ht="39.4" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:46" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A100" s="5" t="s">
         <v>51</v>
       </c>
@@ -55379,7 +55650,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="101" spans="1:45" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:46" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A101" s="5" t="s">
         <v>51</v>
       </c>
@@ -55390,7 +55661,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="102" spans="1:45" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:46" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A102" s="5" t="s">
         <v>51</v>
       </c>
@@ -55401,7 +55672,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="103" spans="1:45" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:46" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A103" s="5" t="s">
         <v>51</v>
       </c>
@@ -55412,7 +55683,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="104" spans="1:45" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:46" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A104" s="5" t="s">
         <v>51</v>
       </c>
@@ -55423,7 +55694,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="105" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A105" s="5" t="s">
         <v>51</v>
       </c>
@@ -55433,7 +55704,7 @@
       <c r="E105" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="AS105" s="5" t="s">
+      <c r="AT105" s="5" t="s">
         <v>125</v>
       </c>
     </row>
@@ -55619,21 +55890,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AD61"/>
+  <dimension ref="A1:AD65"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.06640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.73046875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.53125" customWidth="1"/>
     <col min="13" max="17" width="14.1328125" customWidth="1"/>
@@ -55702,7 +55973,7 @@
       </c>
       <c r="B2" s="45">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$3:$Z$5)/NETWORKDAYS($D$3,$E$3,$Z$3:$Z$5),0%)</f>
-        <v>0</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>130</v>
@@ -55780,7 +56051,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>1</v>
+        <v>0.89473684210526316</v>
       </c>
       <c r="D3" s="26">
         <v>43397</v>
@@ -55797,7 +56068,7 @@
       </c>
       <c r="M3" s="67">
         <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
-        <v>0.6785714285714286</v>
+        <v>0.77501406162114872</v>
       </c>
       <c r="N3" s="33">
         <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Cross Project Move")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Cross Project Move")</f>
@@ -55975,7 +56246,7 @@
         <v>193</v>
       </c>
       <c r="AC5" s="20">
-        <v>800</v>
+        <v>1400.125</v>
       </c>
       <c r="AD5" s="20"/>
     </row>
@@ -55985,7 +56256,7 @@
       </c>
       <c r="B6" s="45">
         <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
-        <v>0.6785714285714286</v>
+        <v>0.77501406162114872</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="21" t="s">
@@ -55993,7 +56264,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43396</v>
+        <v>43404</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>243</v>
@@ -56059,7 +56330,7 @@
       </c>
       <c r="B7" s="30">
         <f>MAX(100%,B6)-B6</f>
-        <v>0.3214285714285714</v>
+        <v>0.22498593837885128</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="20"/>
@@ -56241,7 +56512,7 @@
         <v>50</v>
       </c>
       <c r="AC9" s="20">
-        <v>1400</v>
+        <v>2000.125</v>
       </c>
       <c r="AD9" s="20">
         <v>450</v>
@@ -56531,7 +56802,7 @@
       </c>
       <c r="B22" s="45">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$3:$Z$5)/NETWORKDAYS($D$3,$E$3,$Z$3:$Z$5),0%)</f>
-        <v>0</v>
+        <v>0.10526315789473684</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.45">
@@ -56540,7 +56811,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>1</v>
+        <v>0.89473684210526316</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">
@@ -56671,7 +56942,7 @@
         <v>180</v>
       </c>
       <c r="B29" s="20">
-        <v>950</v>
+        <v>1550.125</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>180</v>
@@ -56775,7 +57046,7 @@
         <v>183</v>
       </c>
       <c r="B33" s="20">
-        <v>1040</v>
+        <v>1640.125</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>183</v>
@@ -56877,7 +57148,7 @@
       <c r="A39" s="20"/>
       <c r="B39">
         <f>SUM(B29:B33)</f>
-        <v>2380</v>
+        <v>3580.25</v>
       </c>
       <c r="D39" t="s">
         <v>118</v>
@@ -56981,7 +57252,7 @@
         <v>234</v>
       </c>
       <c r="B55" s="20">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
@@ -56989,28 +57260,28 @@
         <v>277</v>
       </c>
       <c r="B56" s="20">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" s="17" t="s">
-        <v>61</v>
+        <v>280</v>
       </c>
       <c r="B57" s="20">
-        <v>200</v>
+        <v>200.125</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" s="17" t="s">
-        <v>194</v>
+        <v>61</v>
       </c>
       <c r="B58" s="20">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B59" s="20">
         <v>200</v>
@@ -57018,7 +57289,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" s="17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B60" s="20">
         <v>200</v>
@@ -57029,7 +57300,13 @@
         <v>50</v>
       </c>
       <c r="B61" s="20">
-        <v>1400</v>
+        <v>2000.125</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B65">
+        <f>GETPIVOTDATA("Epic Total Estimate",$A$53)</f>
+        <v>2000.125</v>
       </c>
     </row>
   </sheetData>
@@ -57040,22 +57317,22 @@
     <mergeCell ref="W1:X1"/>
   </mergeCells>
   <conditionalFormatting sqref="B39">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="notEqual">
       <formula>$A$39</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
       <formula>$D$40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
       <formula>$G$40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>$J$40</formula>
     </cfRule>
   </conditionalFormatting>
@@ -57288,7 +57565,7 @@
       <c r="C3" s="57"/>
       <c r="D3" s="58">
         <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
-        <v>1400</v>
+        <v>2000.125</v>
       </c>
       <c r="E3" s="59">
         <f>_ReleaseData!Q25</f>
@@ -57304,7 +57581,7 @@
       </c>
       <c r="H3" s="41">
         <f>D3-I3</f>
-        <v>950</v>
+        <v>1550.125</v>
       </c>
       <c r="I3" s="41">
         <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
@@ -57312,11 +57589,11 @@
       </c>
       <c r="J3" s="33">
         <f t="shared" ref="J3" si="0" xml:space="preserve"> G3/D3</f>
-        <v>0.25714285714285712</v>
+        <v>0.17998875070308107</v>
       </c>
       <c r="K3" s="33">
         <f xml:space="preserve"> H3/D3</f>
-        <v>0.6785714285714286</v>
+        <v>0.77501406162114872</v>
       </c>
       <c r="L3" s="60">
         <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Cross Project Move")</f>
@@ -57957,7 +58234,7 @@
         <v>193</v>
       </c>
       <c r="AM14" s="20">
-        <v>800</v>
+        <v>1400.125</v>
       </c>
       <c r="AN14" s="20"/>
       <c r="AO14" s="20"/>
@@ -58100,7 +58377,7 @@
         <v>50</v>
       </c>
       <c r="AM17" s="20">
-        <v>1400</v>
+        <v>2000.125</v>
       </c>
       <c r="AN17" s="20"/>
       <c r="AO17" s="20">
@@ -58188,7 +58465,7 @@
         <v>68</v>
       </c>
       <c r="C4" s="20">
-        <v>1040</v>
+        <v>1640.125</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>146</v>
@@ -58202,7 +58479,7 @@
         <v>50</v>
       </c>
       <c r="C5" s="20">
-        <v>1040</v>
+        <v>1640.125</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>50</v>
@@ -58226,7 +58503,7 @@
       </c>
       <c r="C16">
         <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
-        <v>1040</v>
+        <v>1640.125</v>
       </c>
       <c r="D16">
         <f>GETPIVOTDATA("Story Points",$G$1)</f>

--- a/blueprint-jira-better-excel/Rocket-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Rocket-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{E81C4B29-0F33-4626-A7BC-632F2BA97C59}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{016F46B1-969D-40FB-83FD-7267788EF881}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="28" r:id="rId19"/>
+    <pivotCache cacheId="14" r:id="rId19"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -5445,7 +5445,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>_ReleaseData!$P$2</c:f>
+              <c:f>_ReleaseData!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5494,7 +5494,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>_ReleaseData!$P$3:$P$9</c:f>
+              <c:f>_ReleaseData!$O$3:$O$9</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
@@ -42740,7 +42740,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43410.432685416665" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43410.53022291667" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -42987,8 +42987,8 @@
         <s v="${issue.fixVersions.name}"/>
         <m/>
         <s v="Rocket"/>
+        <s v="Pegasus" u="1"/>
         <s v="Quasar" u="1"/>
-        <s v="Pegasus" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Priority" numFmtId="0">
@@ -43027,8 +43027,8 @@
         <s v="Other"/>
         <s v="CI/CD"/>
         <s v="UME" u="1"/>
+        <s v="Cross Project Move" u="1"/>
         <s v="Artifact List v2" u="1"/>
-        <s v="Cross Project Move" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Customer" numFmtId="0">
@@ -48100,8 +48100,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="28" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
-  <location ref="J28:K33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="14" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G39:G40" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="48">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48141,7 +48141,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -48161,8 +48161,3828 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="6">
         <item x="0"/>
+        <item m="1" x="3"/>
         <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="5" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="14" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D39:D40" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
         <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="E50:F59" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="44"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="32" item="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G4:H5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="2"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="37"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="47" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A5:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="10" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="50">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="51">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="52">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="55">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B4:C11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="33">
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" x="0"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="31"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D4:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="31">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="8"/>
+        <item m="1" x="26"/>
+        <item m="1" x="20"/>
+        <item m="1" x="15"/>
+        <item m="1" x="12"/>
+        <item m="1" x="9"/>
+        <item m="1" x="27"/>
+        <item m="1" x="14"/>
+        <item m="1" x="29"/>
+        <item m="1" x="24"/>
+        <item m="1" x="18"/>
+        <item m="1" x="13"/>
+        <item m="1" x="10"/>
+        <item m="1" x="16"/>
+        <item m="1" x="17"/>
+        <item m="1" x="19"/>
+        <item m="1" x="21"/>
+        <item m="1" x="22"/>
+        <item m="1" x="23"/>
+        <item m="1" x="25"/>
+        <item m="1" x="28"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="30" item="24" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:C36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="33">
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" x="0"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="31"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="31" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="14" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="G28:H33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="5" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="46" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="47" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A53:B61" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="10"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item m="1" x="9"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="11">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB4:AD9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="14" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D28:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="46" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="47" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="21">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="14" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A38:A39" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="3" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="14" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A28:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="46" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="47" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="14" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+  <location ref="J28:K33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
         <item x="1"/>
         <item x="2"/>
         <item t="default"/>
@@ -48536,9 +52356,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB4:AD9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="14" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J39:J40" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="48">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48562,2014 +52382,6 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="28" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A38:A39" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="48">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="3" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="48">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="32" item="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="48">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="47" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G4:H5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="48">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" m="1" x="4"/>
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="37"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A5:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="48">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="10" format="49" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="50">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="51">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="52">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="53">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="54">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="55">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="B4:C11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="48">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="33">
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" x="0"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="31"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D4:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="48">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="31">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="8"/>
-        <item m="1" x="26"/>
-        <item m="1" x="20"/>
-        <item m="1" x="15"/>
-        <item m="1" x="12"/>
-        <item m="1" x="9"/>
-        <item m="1" x="27"/>
-        <item m="1" x="14"/>
-        <item m="1" x="29"/>
-        <item m="1" x="24"/>
-        <item m="1" x="18"/>
-        <item m="1" x="13"/>
-        <item m="1" x="10"/>
-        <item m="1" x="16"/>
-        <item m="1" x="17"/>
-        <item m="1" x="19"/>
-        <item m="1" x="21"/>
-        <item m="1" x="22"/>
-        <item m="1" x="23"/>
-        <item m="1" x="25"/>
-        <item m="1" x="28"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="24" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:C36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="48">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="33">
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" x="0"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="31"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="48">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item h="1" x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="28">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="29">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="28" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J39:J40" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="48">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="8">
         <item x="0"/>
@@ -50606,8 +52418,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="6">
         <item x="0"/>
+        <item m="1" x="3"/>
         <item m="1" x="4"/>
-        <item m="1" x="3"/>
         <item x="1"/>
         <item x="2"/>
         <item t="default"/>
@@ -50643,1818 +52455,6 @@
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="E50:F59" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="48">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="44"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A53:B61" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="48">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item m="1" x="9"/>
-        <item x="2"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="35"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="11">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="11"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="28" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D28:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="48">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="46" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="47" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="28" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A28:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="48">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="46" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="47" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="28" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D39:D40" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="48">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="28" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G39:G40" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="48">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="5" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="28" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="G28:H33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="48">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="5" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="46" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="47" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -54970,7 +54970,7 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.06640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
@@ -57891,15 +57891,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.06640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.73046875" bestFit="1" customWidth="1"/>

--- a/blueprint-jira-better-excel/Rocket-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Rocket-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{016F46B1-969D-40FB-83FD-7267788EF881}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{3043A378-A50C-4569-9913-C14AF4048DA0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="289">
   <si>
     <t>Status</t>
   </si>
@@ -794,9 +794,6 @@
   </si>
   <si>
     <t>Sum of Epic Decomposed</t>
-  </si>
-  <si>
-    <t>R0</t>
   </si>
   <si>
     <t>P1</t>
@@ -1843,10 +1840,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.17543859649122806</c:v>
+                  <c:v>0.19298245614035087</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82456140350877194</c:v>
+                  <c:v>0.80701754385964919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2350,6 +2347,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -3798,6 +3798,9 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -4109,9 +4112,6 @@
               <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>R0</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>R1</c:v>
                 </c:pt>
@@ -4143,6 +4143,9 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -4182,9 +4185,6 @@
               <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>R0</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>R1</c:v>
                 </c:pt>
@@ -4216,6 +4216,9 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4257,9 +4260,6 @@
               <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>R0</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>R1</c:v>
                 </c:pt>
@@ -4291,6 +4291,9 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -4330,9 +4333,6 @@
               <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>R0</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>R1</c:v>
                 </c:pt>
@@ -4364,6 +4364,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -4589,9 +4592,6 @@
               <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>R0</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>R1</c:v>
                 </c:pt>
@@ -4989,10 +4989,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.17543859649122806</c:v>
+                  <c:v>0.19298245614035087</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82456140350877194</c:v>
+                  <c:v>0.80701754385964919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5502,6 +5502,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -6959,6 +6962,9 @@
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -7488,9 +7494,6 @@
               <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>R0</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>R1</c:v>
                 </c:pt>
@@ -7522,6 +7525,9 @@
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -7561,9 +7567,6 @@
               <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>R0</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>R1</c:v>
                 </c:pt>
@@ -7595,6 +7598,9 @@
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7636,9 +7642,6 @@
               <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>R0</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>R1</c:v>
                 </c:pt>
@@ -7670,6 +7673,9 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -7709,9 +7715,6 @@
               <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>R0</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>R1</c:v>
                 </c:pt>
@@ -7743,6 +7746,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -7921,9 +7927,6 @@
               <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>R0</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>R1</c:v>
                 </c:pt>
@@ -8321,10 +8324,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.17543859649122806</c:v>
+                  <c:v>0.19298245614035087</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82456140350877194</c:v>
+                  <c:v>0.80701754385964919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8828,6 +8831,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -9266,6 +9272,9 @@
                   <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>72.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -9585,9 +9594,6 @@
               <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>R0</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>R1</c:v>
                 </c:pt>
@@ -9619,6 +9625,9 @@
                   <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>95.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -9658,9 +9667,6 @@
               <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>R0</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>R1</c:v>
                 </c:pt>
@@ -9692,6 +9698,9 @@
                   <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>80.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9733,9 +9742,6 @@
               <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>R0</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>R1</c:v>
                 </c:pt>
@@ -9767,6 +9773,9 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>60.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9806,9 +9815,6 @@
               <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>R0</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>R1</c:v>
                 </c:pt>
@@ -9840,6 +9846,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -10065,9 +10074,6 @@
               <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>R0</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>R1</c:v>
                 </c:pt>
@@ -11249,6 +11255,9 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1640.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -11375,6 +11384,9 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>138.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -15009,6 +15021,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.151</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.77501406162114872</c:v>
                 </c:pt>
               </c:numCache>
@@ -15243,7 +15258,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Sprint Rocket1 Progress</c:v>
+              <c:v>Sprint Rocket2 Progress</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -15432,7 +15447,7 @@
         <c:idx val="8"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -15598,7 +15613,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -15694,7 +15709,7 @@
             <c:strRef>
               <c:f>_ActiveSprintData!$E$15</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Closed</c:v>
                 </c:pt>
@@ -15714,9 +15729,6 @@
                   <c:v>Cancelled</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Unkown</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>(blank)</c:v>
                 </c:pt>
               </c:strCache>
@@ -15727,7 +15739,7 @@
               <c:f>_ActiveSprintData!$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -15738,7 +15750,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -15746,8 +15758,8 @@
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20040,6 +20052,9 @@
                   <c:v>528</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>369.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
@@ -20351,9 +20366,6 @@
               <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>R0</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>R1</c:v>
                 </c:pt>
@@ -20385,6 +20397,9 @@
                   <c:v>528</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>435.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2000.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -20424,9 +20439,6 @@
               <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>R0</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>R1</c:v>
                 </c:pt>
@@ -20458,6 +20470,9 @@
                   <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -20499,9 +20514,6 @@
               <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>R0</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>R1</c:v>
                 </c:pt>
@@ -20533,6 +20545,9 @@
                   <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>247.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>360</c:v>
                 </c:pt>
               </c:numCache>
@@ -20572,9 +20587,6 @@
               <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>R0</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>R1</c:v>
                 </c:pt>
@@ -20606,6 +20618,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>66.699999999999989</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1550.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -20846,9 +20861,6 @@
               <c:f>'_CumulativeFlowData '!$A$3:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>R0</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>R1</c:v>
                 </c:pt>
@@ -22090,10 +22102,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.17543859649122806</c:v>
+                  <c:v>0.19298245614035087</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82456140350877194</c:v>
+                  <c:v>0.80701754385964919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -40900,7 +40912,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>18%</a:t>
+            <a:t>19%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41063,9 +41075,9 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>476236</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>17324</xdr:rowOff>
+      <xdr:rowOff>142550</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1509712" cy="718466"/>
+    <xdr:ext cx="1509712" cy="468013"/>
     <xdr:sp macro="" textlink="_TeamBacklogData!$B$12">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="TextBox 6">
@@ -41079,8 +41091,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2419336" y="2189024"/>
-          <a:ext cx="1509712" cy="718466"/>
+          <a:off x="2419336" y="2314250"/>
+          <a:ext cx="1509712" cy="468013"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -41109,7 +41121,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:fld id="{55A7BBCC-74DE-45E2-BDFE-1CC011F65747}" type="TxLink">
-            <a:rPr lang="en-US" sz="4000" b="1" i="0" u="none" strike="noStrike">
+            <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="bg2">
                   <a:lumMod val="50000"/>
@@ -41121,7 +41133,7 @@
             <a:pPr algn="ctr"/>
             <a:t>490</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="4000" b="1">
+          <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
               <a:schemeClr val="bg2">
                 <a:lumMod val="50000"/>
@@ -41220,11 +41232,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>457202</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>171452</xdr:rowOff>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1047759" cy="655885"/>
+    <xdr:ext cx="1347787" cy="468013"/>
     <xdr:sp macro="" textlink="_ActiveSprintData!$E$14">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
@@ -41238,8 +41250,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2400302" y="1800227"/>
-          <a:ext cx="1047759" cy="655885"/>
+          <a:off x="2252663" y="1905000"/>
+          <a:ext cx="1347787" cy="468013"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -41268,7 +41280,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:fld id="{34F43C6E-1085-42C0-A6FD-998322D2AA52}" type="TxLink">
-            <a:rPr lang="en-US" sz="3600" b="1" i="0" u="none" strike="noStrike">
+            <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="bg2">
                   <a:lumMod val="50000"/>
@@ -41278,9 +41290,9 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>26</a:t>
+            <a:t>21</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="3600" b="1">
+          <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
               <a:schemeClr val="bg2">
                 <a:lumMod val="50000"/>
@@ -41540,7 +41552,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>18%</a:t>
+            <a:t>19%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42216,7 +42228,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>18%</a:t>
+            <a:t>19%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42723,7 +42735,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>18%</a:t>
+            <a:t>19%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42740,7 +42752,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43410.53022291667" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43411.44676712963" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -44479,7 +44491,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44527,7 +44539,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44575,7 +44587,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44623,7 +44635,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44671,7 +44683,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44719,7 +44731,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44767,7 +44779,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -48100,3464 +48112,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="14" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G39:G40" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="48">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="5" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="14" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D39:D40" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="48">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="E50:F59" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="48">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="44"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="48">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="32" item="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G4:H5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="48">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="2"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="37"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="48">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="47" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A5:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="48">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="10" format="49" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="50">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="51">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="52">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="53">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="54">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="55">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="B4:C11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="48">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="33">
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" x="0"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="31"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D4:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="48">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="31">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="8"/>
-        <item m="1" x="26"/>
-        <item m="1" x="20"/>
-        <item m="1" x="15"/>
-        <item m="1" x="12"/>
-        <item m="1" x="9"/>
-        <item m="1" x="27"/>
-        <item m="1" x="14"/>
-        <item m="1" x="29"/>
-        <item m="1" x="24"/>
-        <item m="1" x="18"/>
-        <item m="1" x="13"/>
-        <item m="1" x="10"/>
-        <item m="1" x="16"/>
-        <item m="1" x="17"/>
-        <item m="1" x="19"/>
-        <item m="1" x="21"/>
-        <item m="1" x="22"/>
-        <item m="1" x="23"/>
-        <item m="1" x="25"/>
-        <item m="1" x="28"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="24" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:C36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="48">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="33">
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" x="0"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="31"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="48">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item h="1" x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="28">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="29">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="14" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="G28:H33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="48">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="5" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="46" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="47" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A53:B61" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="48">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="10"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item m="1" x="9"/>
-        <item x="2"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="35"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="11">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="11"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB4:AD9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="48">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="14" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D28:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="48">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="46" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="47" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="14" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A38:A39" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="48">
@@ -51656,7 +48210,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="14" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A28:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="48">
@@ -51919,7 +48473,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="14" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J28:K33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="48">
@@ -52344,6 +48898,3461 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="32" item="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="47" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G4:H5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="2"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="37"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A5:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="10" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="50">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="51">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="52">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="55">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B4:C11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="33">
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" x="0"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="31"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D4:E12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="31">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="8"/>
+        <item m="1" x="26"/>
+        <item m="1" x="20"/>
+        <item m="1" x="15"/>
+        <item m="1" x="12"/>
+        <item m="1" x="9"/>
+        <item m="1" x="27"/>
+        <item m="1" x="14"/>
+        <item m="1" x="29"/>
+        <item m="1" x="24"/>
+        <item m="1" x="18"/>
+        <item m="1" x="13"/>
+        <item m="1" x="10"/>
+        <item m="1" x="16"/>
+        <item m="1" x="17"/>
+        <item m="1" x="19"/>
+        <item m="1" x="21"/>
+        <item m="1" x="22"/>
+        <item m="1" x="23"/>
+        <item m="1" x="25"/>
+        <item m="1" x="28"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="30" item="25" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:C36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="33">
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" x="0"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="31"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="31" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="E50:F59" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="44"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="14" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="G28:H33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="5" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="46" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="47" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A53:B61" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="10"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item m="1" x="9"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="11">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="14" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G39:G40" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="5" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="14" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D39:D40" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="14" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D28:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="46" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="47" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="21">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB4:AD9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="48">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -54609,9 +54618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -54662,7 +54669,7 @@
         <v>197</v>
       </c>
       <c r="L5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M5" t="s">
         <v>196</v>
@@ -54678,9 +54685,12 @@
       <c r="K6" t="s">
         <v>241</v>
       </c>
+      <c r="L6">
+        <v>67.137500000000003</v>
+      </c>
       <c r="M6">
         <f t="shared" ref="M6:M11" si="0">SUM(L6:L6)</f>
-        <v>0</v>
+        <v>67.137500000000003</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.45">
@@ -54764,11 +54774,11 @@
       </c>
       <c r="L12">
         <f>SUBTOTAL(109,Table1[R&amp;D])</f>
-        <v>0</v>
+        <v>67.137500000000003</v>
       </c>
       <c r="M12">
         <f>SUBTOTAL(109,Table1[Total])</f>
-        <v>0</v>
+        <v>67.137500000000003</v>
       </c>
     </row>
   </sheetData>
@@ -54798,7 +54808,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -54814,7 +54826,7 @@
       </c>
       <c r="B1" t="str">
         <f>$E$2</f>
-        <v>Rocket1</v>
+        <v>Rocket2</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>9</v>
@@ -54868,7 +54880,7 @@
         <v>182</v>
       </c>
       <c r="E8" s="20">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -54889,24 +54901,18 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D11" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11" s="20"/>
+        <v>193</v>
+      </c>
+      <c r="E11" s="20">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D12" s="17" t="s">
-        <v>193</v>
+        <v>50</v>
       </c>
       <c r="E12" s="20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D13" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="20">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -54915,7 +54921,7 @@
       </c>
       <c r="E14">
         <f>GETPIVOTDATA("Story Points", $D$4)</f>
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -54924,7 +54930,7 @@
       </c>
       <c r="E15" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Quasar", "") &amp; " Progress"</f>
-        <v>Sprint Rocket1 Progress</v>
+        <v>Sprint Rocket2 Progress</v>
       </c>
     </row>
   </sheetData>
@@ -54970,7 +54976,7 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.06640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.06640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
@@ -55183,7 +55189,7 @@
   <dimension ref="A1:AU105"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C3" sqref="C3"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -55372,7 +55378,7 @@
         <v>48</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>226</v>
@@ -55515,7 +55521,7 @@
         <v>225</v>
       </c>
       <c r="AS2" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AT2" s="15" t="s">
         <v>230</v>
@@ -55547,7 +55553,7 @@
       </c>
       <c r="W4" s="4"/>
       <c r="AE4" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AG4" s="5" t="s">
         <v>227</v>
@@ -55556,7 +55562,7 @@
         <v>153</v>
       </c>
       <c r="AJ4" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AL4" s="4" t="s">
         <v>56</v>
@@ -55592,7 +55598,7 @@
       </c>
       <c r="W5" s="4"/>
       <c r="AE5" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AI5" s="5" t="s">
         <v>182</v>
@@ -55638,7 +55644,7 @@
       </c>
       <c r="W6" s="4"/>
       <c r="AE6" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AI6" s="5" t="s">
         <v>154</v>
@@ -55647,7 +55653,7 @@
         <v>234</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AM6" s="4" t="s">
         <v>57</v>
@@ -55681,7 +55687,7 @@
       </c>
       <c r="W7" s="4"/>
       <c r="AE7" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AI7" s="5" t="s">
         <v>155</v>
@@ -55721,7 +55727,7 @@
       </c>
       <c r="W8" s="4"/>
       <c r="AE8" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AI8" s="5" t="s">
         <v>157</v>
@@ -55761,7 +55767,7 @@
       </c>
       <c r="W9" s="4"/>
       <c r="AE9" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AI9" s="5" t="s">
         <v>156</v>
@@ -55801,13 +55807,13 @@
       </c>
       <c r="W10" s="4"/>
       <c r="AE10" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AI10" s="5" t="s">
         <v>158</v>
       </c>
       <c r="AL10" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AM10" s="4" t="s">
         <v>60</v>
@@ -55838,7 +55844,7 @@
       </c>
       <c r="W11" s="4"/>
       <c r="AE11" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AL11" s="4" t="s">
         <v>53</v>
@@ -55869,7 +55875,7 @@
       </c>
       <c r="W12" s="4"/>
       <c r="AE12" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF12" s="5" t="s">
         <v>241</v>
@@ -55901,7 +55907,7 @@
       </c>
       <c r="W13" s="4"/>
       <c r="AE13" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF13" s="5" t="s">
         <v>242</v>
@@ -55934,7 +55940,7 @@
       </c>
       <c r="W14" s="4"/>
       <c r="AE14" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF14" s="5" t="s">
         <v>243</v>
@@ -55965,7 +55971,7 @@
       </c>
       <c r="W15" s="4"/>
       <c r="AE15" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF15" s="5" t="s">
         <v>244</v>
@@ -55991,13 +55997,13 @@
         <v>10</v>
       </c>
       <c r="AE16" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF16" s="5" t="s">
         <v>245</v>
       </c>
       <c r="AS16" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="26.25" x14ac:dyDescent="0.45">
@@ -56014,13 +56020,13 @@
         <v>10</v>
       </c>
       <c r="AE17" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF17" s="5" t="s">
         <v>246</v>
       </c>
       <c r="AS17" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.45">
@@ -56037,13 +56043,13 @@
         <v>10</v>
       </c>
       <c r="AE18" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF18" s="5" t="s">
         <v>241</v>
       </c>
       <c r="AS18" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:45" ht="39.4" x14ac:dyDescent="0.45">
@@ -56060,13 +56066,13 @@
         <v>10</v>
       </c>
       <c r="AE19" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF19" s="5" t="s">
         <v>242</v>
       </c>
       <c r="AS19" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:45" ht="26.25" x14ac:dyDescent="0.45">
@@ -56083,13 +56089,13 @@
         <v>10</v>
       </c>
       <c r="AE20" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF20" s="5" t="s">
         <v>243</v>
       </c>
       <c r="AS20" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:45" ht="26.25" x14ac:dyDescent="0.45">
@@ -56106,13 +56112,13 @@
         <v>10</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF21" s="5" t="s">
         <v>244</v>
       </c>
       <c r="AS21" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:45" ht="26.25" x14ac:dyDescent="0.45">
@@ -56129,13 +56135,13 @@
         <v>10</v>
       </c>
       <c r="AE22" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF22" s="5" t="s">
         <v>245</v>
       </c>
       <c r="AS22" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:45" ht="26.25" x14ac:dyDescent="0.45">
@@ -56146,7 +56152,7 @@
         <v>111</v>
       </c>
       <c r="AE23" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF23" s="5" t="s">
         <v>246</v>
@@ -56160,7 +56166,7 @@
         <v>112</v>
       </c>
       <c r="AE24" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF24" s="5" t="s">
         <v>241</v>
@@ -56174,7 +56180,7 @@
         <v>113</v>
       </c>
       <c r="AE25" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF25" s="5" t="s">
         <v>241</v>
@@ -56231,8 +56237,9 @@
       <c r="N30" s="5">
         <v>1</v>
       </c>
-      <c r="AE30" s="5" t="s">
-        <v>257</v>
+      <c r="AE30" s="5" t="str">
+        <f>_ActiveSprintData!$B$1</f>
+        <v>Rocket2</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>153</v>
@@ -56251,8 +56258,9 @@
       <c r="N31" s="5">
         <v>1</v>
       </c>
-      <c r="AE31" s="5" t="s">
-        <v>257</v>
+      <c r="AE31" s="5" t="str">
+        <f>_ActiveSprintData!$B$1</f>
+        <v>Rocket2</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>182</v>
@@ -56271,8 +56279,9 @@
       <c r="N32" s="5">
         <v>1</v>
       </c>
-      <c r="AE32" s="5" t="s">
-        <v>257</v>
+      <c r="AE32" s="5" t="str">
+        <f>_ActiveSprintData!$B$1</f>
+        <v>Rocket2</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>154</v>
@@ -56291,8 +56300,9 @@
       <c r="N33" s="5">
         <v>1</v>
       </c>
-      <c r="AE33" s="5" t="s">
-        <v>257</v>
+      <c r="AE33" s="5" t="str">
+        <f>_ActiveSprintData!$B$1</f>
+        <v>Rocket2</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>155</v>
@@ -56311,8 +56321,9 @@
       <c r="N34" s="5">
         <v>1</v>
       </c>
-      <c r="AE34" s="5" t="s">
-        <v>257</v>
+      <c r="AE34" s="5" t="str">
+        <f>_ActiveSprintData!$B$1</f>
+        <v>Rocket2</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>157</v>
@@ -56331,8 +56342,9 @@
       <c r="N35" s="5">
         <v>1</v>
       </c>
-      <c r="AE35" s="5" t="s">
-        <v>257</v>
+      <c r="AE35" s="5" t="str">
+        <f>_ActiveSprintData!$B$1</f>
+        <v>Rocket2</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>156</v>
@@ -56348,8 +56360,9 @@
       <c r="N36" s="5">
         <v>1</v>
       </c>
-      <c r="AE36" s="5" t="s">
-        <v>257</v>
+      <c r="AE36" s="5" t="str">
+        <f>_ActiveSprintData!$B$1</f>
+        <v>Rocket2</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>158</v>
@@ -56662,7 +56675,7 @@
         <v>153</v>
       </c>
       <c r="AJ52" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AL52" s="4" t="s">
         <v>58</v>
@@ -57059,7 +57072,7 @@
         <v>153</v>
       </c>
       <c r="AL67" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.45">
@@ -57084,7 +57097,7 @@
         <v>182</v>
       </c>
       <c r="AL68" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="69" spans="1:38" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.45">
@@ -57109,7 +57122,7 @@
         <v>154</v>
       </c>
       <c r="AL69" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.45">
@@ -57134,7 +57147,7 @@
         <v>155</v>
       </c>
       <c r="AL70" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="71" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.45">
@@ -57159,7 +57172,7 @@
         <v>157</v>
       </c>
       <c r="AL71" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.45">
@@ -57181,7 +57194,7 @@
         <v>227</v>
       </c>
       <c r="AJ73" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.45">
@@ -57307,7 +57320,7 @@
         <v>227</v>
       </c>
       <c r="AJ79" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AL79" s="4" t="s">
         <v>56</v>
@@ -57373,7 +57386,7 @@
         <v>245</v>
       </c>
       <c r="AL82" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="83" spans="1:38" x14ac:dyDescent="0.45">
@@ -57473,7 +57486,7 @@
         <v>244</v>
       </c>
       <c r="AL87" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="88" spans="1:38" x14ac:dyDescent="0.45">
@@ -57569,7 +57582,7 @@
         <v>61</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="94" spans="1:38" x14ac:dyDescent="0.45">
@@ -57580,7 +57593,7 @@
         <v>61</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="95" spans="1:38" x14ac:dyDescent="0.45">
@@ -57591,7 +57604,7 @@
         <v>61</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="96" spans="1:38" ht="26.25" x14ac:dyDescent="0.45">
@@ -57602,7 +57615,7 @@
         <v>61</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="97" spans="1:46" x14ac:dyDescent="0.45">
@@ -57613,7 +57626,7 @@
         <v>61</v>
       </c>
       <c r="E97" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="26.25" x14ac:dyDescent="0.45">
@@ -57624,7 +57637,7 @@
         <v>61</v>
       </c>
       <c r="E98" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="99" spans="1:46" x14ac:dyDescent="0.45">
@@ -57635,7 +57648,7 @@
         <v>61</v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="100" spans="1:46" ht="39.4" x14ac:dyDescent="0.45">
@@ -57646,7 +57659,7 @@
         <v>61</v>
       </c>
       <c r="E100" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="26.25" x14ac:dyDescent="0.45">
@@ -57657,7 +57670,7 @@
         <v>61</v>
       </c>
       <c r="E101" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="26.25" x14ac:dyDescent="0.45">
@@ -57668,7 +57681,7 @@
         <v>61</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="26.25" x14ac:dyDescent="0.45">
@@ -57679,7 +57692,7 @@
         <v>61</v>
       </c>
       <c r="E103" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="26.25" x14ac:dyDescent="0.45">
@@ -57690,7 +57703,7 @@
         <v>61</v>
       </c>
       <c r="E104" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="105" spans="1:46" x14ac:dyDescent="0.45">
@@ -57701,7 +57714,7 @@
         <v>61</v>
       </c>
       <c r="E105" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AT105" s="5" t="s">
         <v>125</v>
@@ -57891,20 +57904,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD65"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.06640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.73046875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.53125" customWidth="1"/>
     <col min="13" max="17" width="14.1328125" customWidth="1"/>
@@ -57927,7 +57940,7 @@
         <v>161</v>
       </c>
       <c r="K1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L1" t="s">
         <v>234</v>
@@ -57942,7 +57955,7 @@
         <v>234</v>
       </c>
       <c r="P1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q1" s="80" t="s">
         <v>141</v>
@@ -57957,7 +57970,7 @@
       </c>
       <c r="V1" s="80"/>
       <c r="W1" s="80" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="X1" s="80"/>
       <c r="AB1" s="16" t="s">
@@ -57973,7 +57986,7 @@
       </c>
       <c r="B2" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$3:$Z$5)/NETWORKDAYS($D$3,$E$3,$Z$3:$Z$5),0%)</f>
-        <v>0.17543859649122806</v>
+        <v>0.19298245614035087</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>130</v>
@@ -58051,7 +58064,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.82456140350877194</v>
+        <v>0.80701754385964919</v>
       </c>
       <c r="D3" s="26">
         <v>43397</v>
@@ -58138,52 +58151,44 @@
         <v>0.17543859649122806</v>
       </c>
       <c r="M4" s="66">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
-        <v>0.77501406162114872</v>
+        <v>0.151</v>
       </c>
       <c r="N4" s="33">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Cross Project Move")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Cross Project Move")</f>
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="O4" s="33">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Excel Import")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Excel Import")</f>
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="P4" s="33">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="Q4" s="40">
         <f>Q25*(100%-K4)</f>
         <v>235</v>
       </c>
       <c r="R4" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
-        <v>450</v>
+        <v>369.8</v>
       </c>
       <c r="S4" s="42">
         <f>Q26*(100%-K4)</f>
         <v>41.228070175438596</v>
       </c>
       <c r="T4" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Cross Project Move")</f>
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="U4" s="40">
         <f>Q27*(100%-L4)</f>
         <v>41.228070175438596</v>
       </c>
       <c r="V4" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Excel Import")</f>
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="W4" s="40">
         <f>Q28*(100%-K4)</f>
         <v>61.842105263157897</v>
       </c>
       <c r="X4" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
-        <v>150</v>
+        <v>72.8</v>
       </c>
       <c r="Z4" s="32">
         <v>43460</v>
@@ -58231,30 +58236,54 @@
         <f>SUM($J$4:J5)/SUM($J$4:$J$9)</f>
         <v>0.35087719298245612</v>
       </c>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
+      <c r="M5" s="66">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="N5" s="33">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Cross Project Move")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Cross Project Move")</f>
+        <v>0.25</v>
+      </c>
+      <c r="O5" s="33">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Excel Import")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Excel Import")</f>
+        <v>0.25</v>
+      </c>
+      <c r="P5" s="33">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
+        <v>0.25</v>
+      </c>
       <c r="Q5" s="40">
         <f>Q25*(100%-K5)</f>
         <v>185</v>
       </c>
-      <c r="R5" s="40"/>
+      <c r="R5" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
+        <v>450</v>
+      </c>
       <c r="S5" s="42">
         <f>Q26*(100%-K5)</f>
         <v>32.456140350877192</v>
       </c>
-      <c r="T5" s="40"/>
+      <c r="T5" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Cross Project Move")</f>
+        <v>150</v>
+      </c>
       <c r="U5" s="40">
         <f>Q27*(100%-L5)</f>
         <v>32.456140350877192</v>
       </c>
-      <c r="V5" s="40"/>
+      <c r="V5" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Excel Import")</f>
+        <v>150</v>
+      </c>
       <c r="W5" s="40">
         <f>Q28*(100%-K5)</f>
         <v>48.684210526315788</v>
       </c>
-      <c r="X5" s="40"/>
+      <c r="X5" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
+        <v>150</v>
+      </c>
       <c r="Z5" s="32">
         <v>43466</v>
       </c>
@@ -58280,7 +58309,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43410</v>
+        <v>43411</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>243</v>
@@ -58710,7 +58739,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="24"/>
@@ -58818,7 +58847,7 @@
       </c>
       <c r="B22" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$3:$Z$5)/NETWORKDAYS($D$3,$E$3,$Z$3:$Z$5),0%)</f>
-        <v>0.17543859649122806</v>
+        <v>0.19298245614035087</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.45">
@@ -58827,7 +58856,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>0.82456140350877194</v>
+        <v>0.80701754385964919</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">
@@ -58947,7 +58976,7 @@
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
       <c r="P28" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q28" s="16">
         <v>75</v>
@@ -59259,7 +59288,7 @@
         <v>227</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F51" s="20">
         <v>10</v>
@@ -59267,7 +59296,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E52" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F52" s="20">
         <v>10</v>
@@ -59281,7 +59310,7 @@
         <v>118</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F53" s="20">
         <v>10</v>
@@ -59295,7 +59324,7 @@
         <v>200</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F54" s="20">
         <v>10</v>
@@ -59309,7 +59338,7 @@
         <v>400</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F55" s="20">
         <v>10</v>
@@ -59317,13 +59346,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B56" s="20">
         <v>400</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F56" s="20">
         <v>10</v>
@@ -59331,13 +59360,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B57" s="20">
         <v>200.125</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F57" s="20">
         <v>10</v>
@@ -59525,7 +59554,7 @@
       <c r="Z1" s="82"/>
       <c r="AA1" s="82"/>
       <c r="AB1" s="82" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AC1" s="82"/>
       <c r="AD1" s="82"/>
@@ -59644,9 +59673,6 @@
       <c r="AJ2" s="54"/>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>249</v>
-      </c>
       <c r="B3" s="56"/>
       <c r="C3" s="56"/>
       <c r="D3" s="57">
@@ -59773,132 +59799,116 @@
         <v>43410</v>
       </c>
       <c r="D4" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
-        <v>2000.125</v>
+        <v>435.5</v>
       </c>
       <c r="E4" s="58">
         <f>_ReleaseData!Q25</f>
         <v>285</v>
       </c>
       <c r="F4" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="G4" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
-        <v>360</v>
+        <v>247.5</v>
       </c>
       <c r="H4" s="40">
         <f>D4-I4</f>
-        <v>1550.125</v>
+        <v>66.699999999999989</v>
       </c>
       <c r="I4" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
-        <v>450</v>
+        <v>368.8</v>
       </c>
       <c r="J4" s="33">
         <f t="shared" ref="J4" si="4" xml:space="preserve"> G4/D4</f>
-        <v>0.17998875070308107</v>
+        <v>0.56831228473019513</v>
       </c>
       <c r="K4" s="33">
         <f xml:space="preserve"> H4/D4</f>
-        <v>0.77501406162114872</v>
+        <v>0.15315729047072327</v>
       </c>
       <c r="L4" s="59">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Cross Project Move")</f>
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="M4" s="58">
         <f>_ReleaseData!Q26</f>
         <v>50</v>
       </c>
       <c r="N4" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Cross Project Move")</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="O4" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Cross Project Move")</f>
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="P4" s="40">
         <f>L4-Q4</f>
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="Q4" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Cross Project Move")</f>
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="R4" s="33">
         <f t="shared" ref="R4" si="5" xml:space="preserve"> O4/L4</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="S4" s="33">
         <f xml:space="preserve"> P4/L4</f>
-        <v>0.25</v>
+        <v>0.15909090909090909</v>
       </c>
       <c r="T4" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Import")</f>
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="U4" s="58">
         <f>_ReleaseData!Q27</f>
         <v>50</v>
       </c>
       <c r="V4" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Import")</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="W4" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Excel Import")</f>
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="X4" s="40">
         <f>T4-Y4</f>
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="Y4" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Import")</f>
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="Z4" s="33">
         <f t="shared" ref="Z4" si="6" xml:space="preserve"> W4/T4</f>
-        <v>0.9</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="AA4" s="33">
         <f>X4/T4</f>
-        <v>0.25</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="AB4" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>200</v>
+        <v>95.8</v>
       </c>
       <c r="AC4" s="58">
         <f>_ReleaseData!Q28</f>
         <v>75</v>
       </c>
       <c r="AD4" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>0</v>
+        <v>80.3</v>
       </c>
       <c r="AE4" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>0</v>
+        <v>60.3</v>
       </c>
       <c r="AF4" s="40">
         <f>AB4-AG4</f>
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="AG4" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>150</v>
+        <v>72.8</v>
       </c>
       <c r="AH4" s="33">
         <f t="shared" ref="AH4" si="7" xml:space="preserve"> AE4/AB4</f>
-        <v>0</v>
+        <v>0.62943632567849683</v>
       </c>
       <c r="AI4" s="33">
         <f>AF4/AB4</f>
-        <v>0.25</v>
+        <v>0.24008350730688935</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.45">
@@ -59911,50 +59921,134 @@
       <c r="C5" s="60">
         <v>43424</v>
       </c>
-      <c r="D5" s="57"/>
+      <c r="D5" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
+        <v>2000.125</v>
+      </c>
       <c r="E5" s="58">
         <f>_ReleaseData!Q25</f>
         <v>285</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="59"/>
+      <c r="F5" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
+        <v>360</v>
+      </c>
+      <c r="H5" s="40">
+        <f>D5-I5</f>
+        <v>1550.125</v>
+      </c>
+      <c r="I5" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
+        <v>450</v>
+      </c>
+      <c r="J5" s="33">
+        <f t="shared" ref="J5" si="8" xml:space="preserve"> G5/D5</f>
+        <v>0.17998875070308107</v>
+      </c>
+      <c r="K5" s="33">
+        <f xml:space="preserve"> H5/D5</f>
+        <v>0.77501406162114872</v>
+      </c>
+      <c r="L5" s="59">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Cross Project Move")</f>
+        <v>200</v>
+      </c>
       <c r="M5" s="58">
         <f>_ReleaseData!Q26</f>
         <v>50</v>
       </c>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="57"/>
+      <c r="N5" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Cross Project Move")</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Cross Project Move")</f>
+        <v>180</v>
+      </c>
+      <c r="P5" s="40">
+        <f>L5-Q5</f>
+        <v>50</v>
+      </c>
+      <c r="Q5" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Cross Project Move")</f>
+        <v>150</v>
+      </c>
+      <c r="R5" s="33">
+        <f t="shared" ref="R5" si="9" xml:space="preserve"> O5/L5</f>
+        <v>0.9</v>
+      </c>
+      <c r="S5" s="33">
+        <f xml:space="preserve"> P5/L5</f>
+        <v>0.25</v>
+      </c>
+      <c r="T5" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Import")</f>
+        <v>200</v>
+      </c>
       <c r="U5" s="58">
         <f>_ReleaseData!Q27</f>
         <v>50</v>
       </c>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="57"/>
+      <c r="V5" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Import")</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Excel Import")</f>
+        <v>180</v>
+      </c>
+      <c r="X5" s="40">
+        <f>T5-Y5</f>
+        <v>50</v>
+      </c>
+      <c r="Y5" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Import")</f>
+        <v>150</v>
+      </c>
+      <c r="Z5" s="33">
+        <f t="shared" ref="Z5" si="10" xml:space="preserve"> W5/T5</f>
+        <v>0.9</v>
+      </c>
+      <c r="AA5" s="33">
+        <f>X5/T5</f>
+        <v>0.25</v>
+      </c>
+      <c r="AB5" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>200</v>
+      </c>
       <c r="AC5" s="58">
         <f>_ReleaseData!Q28</f>
         <v>75</v>
       </c>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
+      <c r="AD5" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="40">
+        <f>AB5-AG5</f>
+        <v>50</v>
+      </c>
+      <c r="AG5" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>150</v>
+      </c>
+      <c r="AH5" s="33">
+        <f t="shared" ref="AH5" si="11" xml:space="preserve"> AE5/AB5</f>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="33">
+        <f>AF5/AB5</f>
+        <v>0.25</v>
+      </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -60660,40 +60754,46 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C16">
+        <v>188</v>
+      </c>
+      <c r="D16">
+        <v>138.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
         <v>250</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
         <v>1640.125</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <f>GETPIVOTDATA("Story Points",$G$1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/blueprint-jira-better-excel/Rocket-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Rocket-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{8B5CB543-93DF-4AA1-86F2-9D27354CBD08}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{19DAD590-A8C6-4A63-A89A-9FAC920B4717}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,14 +40,14 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId19"/>
+    <pivotCache cacheId="30" r:id="rId19"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="292">
   <si>
     <t>Status</t>
   </si>
@@ -921,6 +921,9 @@
   <si>
     <t>$[IF(K2="DevOps","","Yes")]</t>
   </si>
+  <si>
+    <t>Bulk Edit</t>
+  </si>
 </sst>
 </file>
 
@@ -1479,46 +1482,6 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1681,6 +1644,46 @@
           <color indexed="64"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1846,10 +1849,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.35087719298245612</c:v>
+                  <c:v>0.43859649122807015</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64912280701754388</c:v>
+                  <c:v>0.56140350877192979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2052,10 +2055,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2356,7 +2359,10 @@
                   <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3449,19 +3455,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3807,7 +3804,10 @@
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150</c:v>
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4152,7 +4152,10 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4225,6 +4228,9 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4300,7 +4306,10 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>180</c:v>
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4373,7 +4382,10 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4995,10 +5007,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.35087719298245612</c:v>
+                  <c:v>0.43859649122807015</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64912280701754388</c:v>
+                  <c:v>0.56140350877192979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5511,6 +5523,9 @@
                   <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -6971,6 +6986,9 @@
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -7316,10 +7334,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.77501406162114872</c:v>
+                  <c:v>0.83334490660370808</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22498593837885128</c:v>
+                  <c:v>0.16665509339629192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7534,6 +7552,9 @@
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -7607,6 +7628,9 @@
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7682,6 +7706,9 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -7755,6 +7782,9 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -8330,10 +8360,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.35087719298245612</c:v>
+                  <c:v>0.43859649122807015</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64912280701754388</c:v>
+                  <c:v>0.56140350877192979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8840,6 +8870,9 @@
                   <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -9281,6 +9314,9 @@
                   <c:v>72.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -9634,6 +9670,9 @@
                   <c:v>95.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>82.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -9707,6 +9746,9 @@
                   <c:v>80.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>82.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9782,6 +9824,9 @@
                   <c:v>60.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>79.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9855,6 +9900,9 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>34.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -11264,7 +11312,10 @@
                   <c:v>130.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1640.125</c:v>
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1620.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11393,6 +11444,9 @@
                   <c:v>137.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>94.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -14594,7 +14648,7 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>60</c:v>
@@ -15030,7 +15084,10 @@
                   <c:v>0.151</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77501406162114872</c:v>
+                  <c:v>0.35510000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83334490660370808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15264,7 +15321,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Sprint Rocket2 Progress</c:v>
+              <c:v>Sprint Rocket3 Progress</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -15753,10 +15810,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -18780,19 +18837,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1550.125</c:v>
+                  <c:v>1500.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>180</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>90</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1640.125</c:v>
+                  <c:v>1620.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19326,7 +19383,9 @@
         <c:idx val="16"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -19420,6 +19479,18 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="24"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -19562,8 +19633,8 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -19671,10 +19742,10 @@
                   <c:v>UME v2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>CI/CD</c:v>
+                  <c:v>Bulk Edit</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>DevOps</c:v>
+                  <c:v>CI/CD</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>R&amp;D Bucket</c:v>
@@ -19701,10 +19772,10 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200.125</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400</c:v>
+                  <c:v>200.125</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>200</c:v>
@@ -20061,7 +20132,10 @@
                   <c:v>306.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>450</c:v>
+                  <c:v>207.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20406,7 +20480,10 @@
                   <c:v>360.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000.125</c:v>
+                  <c:v>321.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20479,6 +20556,9 @@
                   <c:v>290.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>276.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -20554,7 +20634,10 @@
                   <c:v>230.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>360</c:v>
+                  <c:v>262.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20627,7 +20710,10 @@
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1550.125</c:v>
+                  <c:v>114.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22108,10 +22194,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.35087719298245612</c:v>
+                  <c:v>0.43859649122807015</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64912280701754388</c:v>
+                  <c:v>0.56140350877192979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -40110,7 +40196,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>3580.25</a:t>
+            <a:t>3380.25</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1600" b="1">
             <a:solidFill>
@@ -40918,7 +41004,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>35%</a:t>
+            <a:t>44%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41296,7 +41382,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>21</a:t>
+            <a:t>26</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -41558,7 +41644,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>35%</a:t>
+            <a:t>44%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41619,7 +41705,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>78%</a:t>
+            <a:t>83%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41638,11 +41724,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.37156</cdr:x>
-      <cdr:y>0.46937</cdr:y>
+      <cdr:y>0.46653</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.63082</cdr:x>
-      <cdr:y>0.57175</cdr:y>
+      <cdr:y>0.56891</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="_ReleaseData!$B$66">
       <cdr:nvSpPr>
@@ -41657,7 +41743,7 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1481117" y="1571471"/>
+          <a:off x="1481117" y="1561948"/>
           <a:ext cx="1033466" cy="342772"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -41788,7 +41874,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>2000.125</a:t>
+            <a:t>1800.125</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1600" b="1">
             <a:solidFill>
@@ -42094,7 +42180,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>200</a:t>
+            <a:t>0</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2800" b="1">
             <a:solidFill>
@@ -42234,7 +42320,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>35%</a:t>
+            <a:t>44%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42295,7 +42381,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>25%</a:t>
+            <a:t>#REF!</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42741,7 +42827,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>35%</a:t>
+            <a:t>44%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42758,7 +42844,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43424.639942824077" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43431.573580671298" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -43005,8 +43091,8 @@
         <s v="${issue.fixVersions.name}"/>
         <m/>
         <s v="Rocket"/>
+        <s v="Quasar" u="1"/>
         <s v="Pegasus" u="1"/>
-        <s v="Quasar" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Priority" numFmtId="0">
@@ -43034,7 +43120,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Rocket Component" numFmtId="0">
-      <sharedItems containsBlank="1" count="12">
+      <sharedItems containsBlank="1" count="13">
         <s v="${bpHelper.getRocketComponent(issue)}"/>
         <m/>
         <s v="UME v2"/>
@@ -43044,9 +43130,10 @@
         <s v="R&amp;D Bucket"/>
         <s v="Other"/>
         <s v="CI/CD"/>
+        <s v="Bulk Edit"/>
         <s v="UME" u="1"/>
+        <s v="Artifact List v2" u="1"/>
         <s v="Cross Project Move" u="1"/>
-        <s v="Artifact List v2" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Customer" numFmtId="0">
@@ -43421,7 +43508,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="2"/>
+    <x v="1"/>
     <x v="2"/>
   </r>
   <r>
@@ -44533,7 +44620,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44582,7 +44669,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44631,7 +44718,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44680,7 +44767,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44729,7 +44816,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44778,7 +44865,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44827,7 +44914,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45528,7 +45615,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="2"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -46900,7 +46987,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="2"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -46954,7 +47041,7 @@
   </r>
   <r>
     <s v="key"/>
-    <x v="3"/>
+    <x v="2"/>
     <m/>
     <m/>
     <x v="16"/>
@@ -46968,7 +47055,7 @@
     <m/>
     <n v="30"/>
     <m/>
-    <m/>
+    <n v="200"/>
     <m/>
     <m/>
     <m/>
@@ -46988,7 +47075,7 @@
     <x v="2"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="9"/>
     <m/>
     <x v="6"/>
     <m/>
@@ -48230,8 +48317,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48291,8 +48378,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="6">
         <item x="0"/>
+        <item m="1" x="4"/>
         <item m="1" x="3"/>
-        <item m="1" x="4"/>
         <item x="1"/>
         <item x="2"/>
         <item t="default"/>
@@ -48324,7 +48411,7 @@
   <pageFields count="3">
     <pageField fld="32" item="4" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="2" hier="-1"/>
+    <pageField fld="10" item="5" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
@@ -48342,8 +48429,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48367,23 +48454,12 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -48403,8 +48479,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="6">
         <item x="0"/>
+        <item m="1" x="4"/>
         <item m="1" x="3"/>
-        <item m="1" x="4"/>
         <item x="1"/>
         <item x="2"/>
         <item t="default"/>
@@ -48416,312 +48492,39 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
         <item m="1" x="3"/>
+        <item x="0"/>
         <item x="2"/>
         <item x="1"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
+  <rowItems count="1">
+    <i/>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="4" hier="-1"/>
+  <pageFields count="3">
+    <pageField fld="32" item="3" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="5" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
   </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
   </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -48735,337 +48538,136 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="7"/>
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
         <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
         <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="44"/>
+    <field x="10"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="4">
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i>
       <x v="3"/>
     </i>
     <i>
-      <x v="4"/>
-    </i>
-    <i>
       <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="2" hier="-1"/>
+  <pageFields count="3">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
   </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -49079,8 +48681,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AL10:AP16" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisCol" subtotalTop="0" showAll="0">
@@ -49140,8 +48742,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="6">
         <item x="0"/>
+        <item m="1" x="4"/>
         <item m="1" x="3"/>
-        <item m="1" x="4"/>
         <item x="1"/>
         <item x="2"/>
         <item t="default"/>
@@ -49175,15 +48777,12 @@
   <rowFields count="1">
     <field x="10"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="4">
     <i>
       <x v="2"/>
     </i>
     <i>
       <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
     </i>
     <i>
       <x v="5"/>
@@ -49234,7 +48833,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49340,7 +48939,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G5:H6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField showAll="0"/>
@@ -49378,8 +48977,8 @@
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="6">
         <item h="1" x="0"/>
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="4"/>
+        <item h="1" m="1" x="4"/>
+        <item m="1" x="3"/>
         <item x="2"/>
         <item h="1" x="1"/>
         <item t="default"/>
@@ -49468,7 +49067,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49518,8 +49117,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="6">
         <item x="0"/>
+        <item m="1" x="4"/>
         <item m="1" x="3"/>
-        <item m="1" x="4"/>
         <item x="1"/>
         <item x="2"/>
         <item t="default"/>
@@ -49707,7 +49306,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B5:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49940,7 +49539,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50094,7 +49693,7 @@
   </colItems>
   <pageFields count="3">
     <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="25" hier="-1"/>
+    <pageField fld="30" item="26" hier="-1"/>
     <pageField fld="45" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
@@ -50229,7 +49828,270 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:C36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="33">
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" x="0"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="31"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="31" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -50342,8 +50204,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="6">
         <item x="0"/>
+        <item m="1" x="4"/>
         <item m="1" x="3"/>
-        <item m="1" x="4"/>
         <item x="1"/>
         <item x="2"/>
         <item t="default"/>
@@ -50649,272 +50511,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:C36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="33">
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" x="0"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="31"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+  <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -50954,7 +50553,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50974,393 +50573,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="6">
         <item x="0"/>
+        <item m="1" x="4"/>
         <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="5" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
-  <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
         <item x="1"/>
         <item x="2"/>
         <item t="default"/>
@@ -51744,9 +50958,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -51770,152 +50984,6 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="8">
         <item x="0"/>
@@ -51952,8 +51020,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="6">
         <item x="0"/>
+        <item m="1" x="4"/>
         <item m="1" x="3"/>
-        <item m="1" x="4"/>
         <item x="1"/>
         <item x="2"/>
         <item t="default"/>
@@ -51985,7 +51053,7 @@
   <pageFields count="3">
     <pageField fld="32" item="4" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="4" hier="-1"/>
+    <pageField fld="10" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
@@ -52002,117 +51070,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="3" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52162,8 +51121,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="6">
         <item x="0"/>
+        <item m="1" x="4"/>
         <item m="1" x="3"/>
-        <item m="1" x="4"/>
         <item x="1"/>
         <item x="2"/>
         <item t="default"/>
@@ -52172,14 +51131,15 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="13">
+      <items count="14">
         <item x="0"/>
         <item m="1" x="11"/>
-        <item m="1" x="10"/>
+        <item m="1" x="12"/>
         <item x="3"/>
         <item x="4"/>
-        <item m="1" x="9"/>
+        <item m="1" x="10"/>
         <item x="2"/>
+        <item x="9"/>
         <item x="8"/>
         <item x="5"/>
         <item x="6"/>
@@ -52230,10 +51190,10 @@
       <x v="8"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="10"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="11"/>
     </i>
     <i t="grand">
       <x/>
@@ -52250,7 +51210,7 @@
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
   </dataFields>
-  <chartFormats count="11">
+  <chartFormats count="12">
     <chartFormat chart="2" format="10" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -52279,7 +51239,7 @@
             <x v="0"/>
           </reference>
           <reference field="35" count="1" selected="0">
-            <x v="10"/>
+            <x v="11"/>
           </reference>
         </references>
       </pivotArea>
@@ -52291,7 +51251,7 @@
             <x v="0"/>
           </reference>
           <reference field="35" count="1" selected="0">
-            <x v="9"/>
+            <x v="10"/>
           </reference>
         </references>
       </pivotArea>
@@ -52315,7 +51275,7 @@
             <x v="0"/>
           </reference>
           <reference field="35" count="1" selected="0">
-            <x v="11"/>
+            <x v="12"/>
           </reference>
         </references>
       </pivotArea>
@@ -52351,7 +51311,7 @@
             <x v="0"/>
           </reference>
           <reference field="35" count="1" selected="0">
-            <x v="8"/>
+            <x v="9"/>
           </reference>
         </references>
       </pivotArea>
@@ -52369,6 +51329,18 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="2" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="25">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -52393,9 +51365,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -52455,8 +51427,1130 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="6">
         <item x="0"/>
+        <item m="1" x="4"/>
         <item m="1" x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="5" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
         <item m="1" x="4"/>
+        <item m="1" x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="44"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="3"/>
         <item x="1"/>
         <item x="2"/>
         <item t="default"/>
@@ -52733,26 +52827,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="D2:E4" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="D2:E4" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="D2:E4" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Start Date" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="End Date" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Start Date" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="End Date" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="Z2:Z5" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="Z2:Z5" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="Z2:Z5" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Stabilization and Holidays" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Stabilization and Holidays" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -52781,10 +52875,10 @@
   </autoFilter>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Sprint"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Epics New" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Epics New" dataDxfId="2">
       <calculatedColumnFormula>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Stories Ready" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Stories Ready" dataDxfId="1">
       <calculatedColumnFormula>GETPIVOTDATA("Story Points",#REF!)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -52802,7 +52896,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Sprint" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="R&amp;D" totalsRowFunction="sum"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Total" totalsRowFunction="sum" dataDxfId="4">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Total" totalsRowFunction="sum" dataDxfId="0">
       <calculatedColumnFormula>SUM(L7:L7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -54970,14 +55064,17 @@
         <v>243</v>
       </c>
       <c r="C8" s="20">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K8" t="s">
         <v>242</v>
       </c>
+      <c r="L8">
+        <v>60.25</v>
+      </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60.25</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.45">
@@ -55030,7 +55127,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="20">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="K12" t="s">
         <v>246</v>
@@ -55046,11 +55143,11 @@
       </c>
       <c r="L13">
         <f>SUBTOTAL(109,Table1[R&amp;D])</f>
-        <v>61</v>
+        <v>121.25</v>
       </c>
       <c r="M13">
         <f>SUBTOTAL(109,Table1[Total])</f>
-        <v>61</v>
+        <v>121.25</v>
       </c>
     </row>
   </sheetData>
@@ -55066,7 +55163,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -55096,7 +55193,7 @@
       </c>
       <c r="B1" t="str">
         <f>$E$2</f>
-        <v>Rocket2</v>
+        <v>Rocket3</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>9</v>
@@ -55110,7 +55207,7 @@
         <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -55150,7 +55247,7 @@
         <v>154</v>
       </c>
       <c r="E8" s="20">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -55158,7 +55255,7 @@
         <v>182</v>
       </c>
       <c r="E9" s="20">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -55190,7 +55287,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="20">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -55199,7 +55296,7 @@
       </c>
       <c r="E15">
         <f>GETPIVOTDATA("Story Points", $D$5)</f>
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -55208,7 +55305,7 @@
       </c>
       <c r="E16" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Quasar", "") &amp; " Progress"</f>
-        <v>Sprint Rocket2 Progress</v>
+        <v>Sprint Rocket3 Progress</v>
       </c>
     </row>
   </sheetData>
@@ -55254,7 +55351,7 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.06640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
@@ -55999,9 +56096,6 @@
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="4"/>
-      <c r="AT7" s="5" t="s">
-        <v>228</v>
-      </c>
       <c r="AU7" s="5" t="s">
         <v>228</v>
       </c>
@@ -56602,7 +56696,7 @@
       </c>
       <c r="AE30" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Rocket2</v>
+        <v>Rocket3</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>153</v>
@@ -56626,7 +56720,7 @@
       </c>
       <c r="AE31" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Rocket2</v>
+        <v>Rocket3</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>182</v>
@@ -56650,7 +56744,7 @@
       </c>
       <c r="AE32" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Rocket2</v>
+        <v>Rocket3</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>154</v>
@@ -56674,7 +56768,7 @@
       </c>
       <c r="AE33" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Rocket2</v>
+        <v>Rocket3</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>155</v>
@@ -56698,7 +56792,7 @@
       </c>
       <c r="AE34" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Rocket2</v>
+        <v>Rocket3</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>157</v>
@@ -56722,7 +56816,7 @@
       </c>
       <c r="AE35" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Rocket2</v>
+        <v>Rocket3</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>156</v>
@@ -56743,7 +56837,7 @@
       </c>
       <c r="AE36" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Rocket2</v>
+        <v>Rocket3</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>158</v>
@@ -57031,9 +57125,6 @@
       <c r="AP50" s="5">
         <v>40</v>
       </c>
-      <c r="AT50" s="5" t="s">
-        <v>228</v>
-      </c>
     </row>
     <row r="51" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
@@ -57803,9 +57894,6 @@
       <c r="AL78" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AT78" s="5" t="s">
-        <v>228</v>
-      </c>
     </row>
     <row r="79" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A79" s="5" t="s">
@@ -57844,7 +57932,7 @@
         <v>51</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E80" s="19" t="s">
         <v>106</v>
@@ -57852,11 +57940,17 @@
       <c r="N80" s="5">
         <v>30</v>
       </c>
+      <c r="P80" s="5">
+        <v>200</v>
+      </c>
       <c r="AF80" s="5" t="s">
         <v>243</v>
       </c>
       <c r="AG80" s="5" t="s">
         <v>227</v>
+      </c>
+      <c r="AJ80" s="5" t="s">
+        <v>291</v>
       </c>
       <c r="AL80" s="4" t="s">
         <v>58</v>
@@ -58499,16 +58593,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.06640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.73046875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.53125" customWidth="1"/>
     <col min="13" max="17" width="14.1328125" customWidth="1"/>
@@ -58518,7 +58612,7 @@
     <col min="21" max="21" width="14.1328125" customWidth="1"/>
     <col min="22" max="24" width="15.73046875" customWidth="1"/>
     <col min="26" max="26" width="22.73046875" customWidth="1"/>
-    <col min="28" max="28" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.59765625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="27.06640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -58577,7 +58671,7 @@
       </c>
       <c r="B2" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$3:$Z$5)/NETWORKDAYS($D$3,$E$3,$Z$3:$Z$5),0%)</f>
-        <v>0.35087719298245612</v>
+        <v>0.43859649122807015</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>130</v>
@@ -58655,7 +58749,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.64912280701754388</v>
+        <v>0.56140350877192979</v>
       </c>
       <c r="D3" s="26">
         <v>43397</v>
@@ -58825,52 +58919,44 @@
         <v>0.35087719298245612</v>
       </c>
       <c r="M5" s="66">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
-        <v>0.77501406162114872</v>
+        <v>0.35510000000000003</v>
       </c>
       <c r="N5" s="33">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Cross Project Move")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Cross Project Move")</f>
-        <v>0.25</v>
+        <v>0.65</v>
       </c>
       <c r="O5" s="33">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Excel Import")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Excel Import")</f>
-        <v>0.25</v>
+        <v>0.42</v>
       </c>
       <c r="P5" s="33">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
       <c r="Q5" s="40">
         <f>Q25*(100%-K5)</f>
         <v>185</v>
       </c>
       <c r="R5" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
-        <v>450</v>
+        <v>207.5</v>
       </c>
       <c r="S5" s="42">
         <f>Q26*(100%-K5)</f>
         <v>32.456140350877192</v>
       </c>
       <c r="T5" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Cross Project Move")</f>
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="U5" s="40">
         <f>Q27*(100%-L5)</f>
         <v>32.456140350877192</v>
       </c>
       <c r="V5" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Excel Import")</f>
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="W5" s="40">
         <f>Q28*(100%-K5)</f>
         <v>48.684210526315788</v>
       </c>
       <c r="X5" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
-        <v>150</v>
+        <v>48.5</v>
       </c>
       <c r="Z5" s="32">
         <v>43466</v>
@@ -58891,7 +58977,7 @@
       </c>
       <c r="B6" s="44">
         <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
-        <v>0.77501406162114872</v>
+        <v>0.83334490660370808</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="21" t="s">
@@ -58899,7 +58985,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43424</v>
+        <v>43431</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>243</v>
@@ -58924,30 +59010,54 @@
         <f>SUM($J$4:J6)/SUM($J$4:$J$9)</f>
         <v>0.52631578947368418</v>
       </c>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
+      <c r="M6" s="66">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
+        <v>0.83334490660370808</v>
+      </c>
+      <c r="N6" s="33" t="e">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Cross Project Move")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Cross Project Move")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O6" s="33">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Excel Import")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Excel Import")</f>
+        <v>0.25</v>
+      </c>
+      <c r="P6" s="33">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
+        <v>0.25</v>
+      </c>
       <c r="Q6" s="40">
         <f>Q25*(100%-K6)</f>
         <v>135</v>
       </c>
-      <c r="R6" s="41"/>
+      <c r="R6" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
+        <v>300</v>
+      </c>
       <c r="S6" s="42">
         <f>Q26*(100%-K6)</f>
         <v>23.684210526315791</v>
       </c>
-      <c r="T6" s="41"/>
+      <c r="T6" s="40" t="e">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Cross Project Move")</f>
+        <v>#REF!</v>
+      </c>
       <c r="U6" s="40">
         <f>Q27*(100%-L6)</f>
         <v>23.684210526315791</v>
       </c>
-      <c r="V6" s="41"/>
+      <c r="V6" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Excel Import")</f>
+        <v>150</v>
+      </c>
       <c r="W6" s="40">
         <f>Q28*(100%-K6)</f>
         <v>35.526315789473685</v>
       </c>
-      <c r="X6" s="41"/>
+      <c r="X6" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
+        <v>150</v>
+      </c>
       <c r="Z6" s="32"/>
       <c r="AB6" s="17" t="s">
         <v>193</v>
@@ -58963,7 +59073,7 @@
       </c>
       <c r="B7" s="30">
         <f>MAX(100%,B6)-B6</f>
-        <v>0.22498593837885128</v>
+        <v>0.16665509339629192</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="20"/>
@@ -59077,7 +59187,7 @@
       <c r="X8" s="41"/>
       <c r="Z8" s="32"/>
       <c r="AB8" s="17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AC8" s="20">
         <v>200</v>
@@ -59142,22 +59252,22 @@
       <c r="X9" s="79"/>
       <c r="Z9" s="32"/>
       <c r="AB9" s="17" t="s">
-        <v>234</v>
+        <v>50</v>
       </c>
       <c r="AC9" s="20">
-        <v>200</v>
+        <v>1800.125</v>
       </c>
       <c r="AD9" s="20">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="44" t="e">
         <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Cross Project Move")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Cross Project Move")</f>
-        <v>0.25</v>
+        <v>#REF!</v>
       </c>
       <c r="G10" s="68"/>
       <c r="H10" s="69"/>
@@ -59178,23 +59288,14 @@
       <c r="W10" s="67"/>
       <c r="X10" s="67"/>
       <c r="Z10" s="32"/>
-      <c r="AB10" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC10" s="20">
-        <v>2000.125</v>
-      </c>
-      <c r="AD10" s="20">
-        <v>450</v>
-      </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="30" t="e">
         <f>MAX(100%,B10)-B10</f>
-        <v>0.75</v>
+        <v>#REF!</v>
       </c>
       <c r="G11" s="74"/>
       <c r="H11" s="75"/>
@@ -59444,7 +59545,7 @@
       </c>
       <c r="B22" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$3:$Z$5)/NETWORKDAYS($D$3,$E$3,$Z$3:$Z$5),0%)</f>
-        <v>0.35087719298245612</v>
+        <v>0.43859649122807015</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.45">
@@ -59453,7 +59554,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>0.64912280701754388</v>
+        <v>0.56140350877192979</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">
@@ -59610,13 +59711,13 @@
         <v>180</v>
       </c>
       <c r="B30" s="20">
-        <v>1550.125</v>
+        <v>1500.125</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>180</v>
       </c>
       <c r="E30" s="20">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>180</v>
@@ -59636,14 +59737,12 @@
         <v>181</v>
       </c>
       <c r="B31" s="20">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="E31" s="20">
-        <v>40</v>
-      </c>
+      <c r="E31" s="20"/>
       <c r="G31" s="17" t="s">
         <v>181</v>
       </c>
@@ -59662,14 +59761,12 @@
         <v>154</v>
       </c>
       <c r="B32" s="20">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="E32" s="20">
-        <v>60</v>
-      </c>
+      <c r="E32" s="20"/>
       <c r="G32" s="17" t="s">
         <v>154</v>
       </c>
@@ -59688,14 +59785,12 @@
         <v>182</v>
       </c>
       <c r="B33" s="20">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="E33" s="20">
-        <v>30</v>
-      </c>
+      <c r="E33" s="20"/>
       <c r="G33" s="17" t="s">
         <v>182</v>
       </c>
@@ -59714,13 +59809,13 @@
         <v>183</v>
       </c>
       <c r="B34" s="20">
-        <v>1640.125</v>
+        <v>1620.125</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>183</v>
       </c>
       <c r="E34" s="20">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>183</v>
@@ -59834,7 +59929,7 @@
       <c r="A41" s="20"/>
       <c r="B41">
         <f>SUM(B30:B34)</f>
-        <v>3580.25</v>
+        <v>3380.25</v>
       </c>
       <c r="D41" t="s">
         <v>118</v>
@@ -59852,7 +59947,7 @@
       </c>
       <c r="E42">
         <f>SUM(E30:E34)</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G42" s="20">
         <v>200</v>
@@ -60005,10 +60100,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="17" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="B58" s="20">
-        <v>200.125</v>
+        <v>200</v>
       </c>
       <c r="E58" s="17" t="s">
         <v>288</v>
@@ -60019,10 +60114,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="17" t="s">
-        <v>61</v>
+        <v>279</v>
       </c>
       <c r="B59" s="20">
-        <v>400</v>
+        <v>200.125</v>
       </c>
       <c r="E59" s="17" t="s">
         <v>193</v>
@@ -60056,13 +60151,13 @@
         <v>50</v>
       </c>
       <c r="B62" s="20">
-        <v>2000.125</v>
+        <v>1800.125</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B66">
         <f>GETPIVOTDATA("Epic Total Estimate",$A$54)</f>
-        <v>2000.125</v>
+        <v>1800.125</v>
       </c>
       <c r="F66">
         <f>GETPIVOTDATA("Story Points",$E$51)</f>
@@ -60077,22 +60172,22 @@
     <mergeCell ref="W1:X1"/>
   </mergeCells>
   <conditionalFormatting sqref="B41">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="notEqual">
       <formula>$A$41</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="notEqual">
       <formula>$D$42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="notEqual">
       <formula>$G$42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="notEqual">
       <formula>$J$42</formula>
     </cfRule>
   </conditionalFormatting>
@@ -60154,7 +60249,7 @@
     <col min="34" max="34" width="12.73046875" customWidth="1"/>
     <col min="35" max="35" width="12.33203125" customWidth="1"/>
     <col min="36" max="36" width="9.06640625" style="47"/>
-    <col min="38" max="38" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.59765625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="20.19921875" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="21.53125" bestFit="1" customWidth="1"/>
@@ -60567,132 +60662,116 @@
         <v>43424</v>
       </c>
       <c r="D5" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
-        <v>2000.125</v>
+        <v>321.8</v>
       </c>
       <c r="E5" s="58">
         <f>_ReleaseData!Q25</f>
         <v>285</v>
       </c>
       <c r="F5" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>276.8</v>
       </c>
       <c r="G5" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
-        <v>360</v>
+        <v>262.8</v>
       </c>
       <c r="H5" s="40">
         <f>D5-I5</f>
-        <v>1550.125</v>
+        <v>114.30000000000001</v>
       </c>
       <c r="I5" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
-        <v>450</v>
+        <v>207.5</v>
       </c>
       <c r="J5" s="33">
         <f t="shared" ref="J5" si="8" xml:space="preserve"> G5/D5</f>
-        <v>0.17998875070308107</v>
+        <v>0.81665630826600377</v>
       </c>
       <c r="K5" s="33">
         <f xml:space="preserve"> H5/D5</f>
-        <v>0.77501406162114872</v>
+        <v>0.35518955873213176</v>
       </c>
       <c r="L5" s="59">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Cross Project Move")</f>
-        <v>200</v>
+        <v>49</v>
       </c>
       <c r="M5" s="58">
         <f>_ReleaseData!Q26</f>
         <v>50</v>
       </c>
       <c r="N5" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Cross Project Move")</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="O5" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Cross Project Move")</f>
-        <v>180</v>
+        <v>49</v>
       </c>
       <c r="P5" s="40">
         <f>L5-Q5</f>
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Cross Project Move")</f>
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="R5" s="33">
         <f t="shared" ref="R5" si="9" xml:space="preserve"> O5/L5</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="S5" s="33">
         <f xml:space="preserve"> P5/L5</f>
-        <v>0.25</v>
+        <v>0.65306122448979587</v>
       </c>
       <c r="T5" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Import")</f>
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="U5" s="58">
         <f>_ReleaseData!Q27</f>
         <v>50</v>
       </c>
       <c r="V5" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Import")</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="W5" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Excel Import")</f>
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="X5" s="40">
         <f>T5-Y5</f>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="Y5" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Import")</f>
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="Z5" s="33">
         <f t="shared" ref="Z5" si="10" xml:space="preserve"> W5/T5</f>
-        <v>0.9</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="AA5" s="33">
         <f>X5/T5</f>
-        <v>0.25</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="AB5" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>200</v>
+        <v>82.8</v>
       </c>
       <c r="AC5" s="58">
         <f>_ReleaseData!Q28</f>
         <v>75</v>
       </c>
       <c r="AD5" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>0</v>
+        <v>82.8</v>
       </c>
       <c r="AE5" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>0</v>
+        <v>79.8</v>
       </c>
       <c r="AF5" s="40">
         <f>AB5-AG5</f>
-        <v>50</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="AG5" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>150</v>
+        <v>48.5</v>
       </c>
       <c r="AH5" s="33">
         <f t="shared" ref="AH5" si="11" xml:space="preserve"> AE5/AB5</f>
-        <v>0</v>
+        <v>0.96376811594202894</v>
       </c>
       <c r="AI5" s="33">
         <f>AF5/AB5</f>
-        <v>0.25</v>
+        <v>0.41425120772946855</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.45">
@@ -60705,48 +60784,134 @@
       <c r="C6" s="60">
         <v>43438</v>
       </c>
-      <c r="D6" s="57"/>
+      <c r="D6" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
+        <v>1800.125</v>
+      </c>
       <c r="E6" s="58">
         <f>_ReleaseData!Q25</f>
         <v>285</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="59"/>
+      <c r="F6" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
+        <v>180</v>
+      </c>
+      <c r="H6" s="40">
+        <f>D6-I6</f>
+        <v>1500.125</v>
+      </c>
+      <c r="I6" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
+        <v>300</v>
+      </c>
+      <c r="J6" s="33">
+        <f t="shared" ref="J6" si="12" xml:space="preserve"> G6/D6</f>
+        <v>9.9993056037775155E-2</v>
+      </c>
+      <c r="K6" s="33">
+        <f xml:space="preserve"> H6/D6</f>
+        <v>0.83334490660370808</v>
+      </c>
+      <c r="L6" s="59" t="e">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Cross Project Move")</f>
+        <v>#REF!</v>
+      </c>
       <c r="M6" s="58">
         <f>_ReleaseData!Q26</f>
         <v>50</v>
       </c>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="57"/>
+      <c r="N6" s="40" t="e">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Cross Project Move")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O6" s="40" t="e">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Cross Project Move")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P6" s="40" t="e">
+        <f>L6-Q6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q6" s="40" t="e">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Cross Project Move")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R6" s="33" t="e">
+        <f t="shared" ref="R6" si="13" xml:space="preserve"> O6/L6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S6" s="33" t="e">
+        <f xml:space="preserve"> P6/L6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T6" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Import")</f>
+        <v>200</v>
+      </c>
       <c r="U6" s="58">
         <f>_ReleaseData!Q27</f>
         <v>50</v>
       </c>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="57"/>
+      <c r="V6" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Import")</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Excel Import")</f>
+        <v>180</v>
+      </c>
+      <c r="X6" s="40">
+        <f>T6-Y6</f>
+        <v>50</v>
+      </c>
+      <c r="Y6" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Import")</f>
+        <v>150</v>
+      </c>
+      <c r="Z6" s="33">
+        <f t="shared" ref="Z6" si="14" xml:space="preserve"> W6/T6</f>
+        <v>0.9</v>
+      </c>
+      <c r="AA6" s="33">
+        <f>X6/T6</f>
+        <v>0.25</v>
+      </c>
+      <c r="AB6" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>200</v>
+      </c>
       <c r="AC6" s="58">
         <f>_ReleaseData!Q28</f>
         <v>75</v>
       </c>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="40"/>
-      <c r="AG6" s="40"/>
-      <c r="AH6" s="33"/>
-      <c r="AI6" s="33"/>
+      <c r="AD6" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="40">
+        <f>AB6-AG6</f>
+        <v>50</v>
+      </c>
+      <c r="AG6" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>150</v>
+      </c>
+      <c r="AH6" s="33">
+        <f t="shared" ref="AH6" si="15" xml:space="preserve"> AE6/AB6</f>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="33">
+        <f>AF6/AB6</f>
+        <v>0.25</v>
+      </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -61182,7 +61347,7 @@
       <c r="AH15" s="33"/>
       <c r="AI15" s="33"/>
       <c r="AL15" s="17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM15" s="20">
         <v>200</v>
@@ -61231,20 +61396,20 @@
       <c r="AH16" s="33"/>
       <c r="AI16" s="33"/>
       <c r="AL16" s="17" t="s">
-        <v>234</v>
+        <v>50</v>
       </c>
       <c r="AM16" s="20">
-        <v>200</v>
+        <v>1800.125</v>
       </c>
       <c r="AN16" s="20"/>
       <c r="AO16" s="20">
         <v>180</v>
       </c>
       <c r="AP16" s="20">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="17" spans="2:42" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B17" s="62"/>
       <c r="C17" s="62"/>
       <c r="D17" s="57"/>
@@ -61279,21 +61444,8 @@
       <c r="AG17" s="40"/>
       <c r="AH17" s="33"/>
       <c r="AI17" s="33"/>
-      <c r="AL17" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM17" s="20">
-        <v>2000.125</v>
-      </c>
-      <c r="AN17" s="20"/>
-      <c r="AO17" s="20">
-        <v>360</v>
-      </c>
-      <c r="AP17" s="20">
-        <v>450</v>
-      </c>
     </row>
-    <row r="18" spans="2:42" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B18" s="63"/>
     </row>
   </sheetData>
@@ -61327,9 +61479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -61385,7 +61535,7 @@
         <v>68</v>
       </c>
       <c r="C4" s="20">
-        <v>1640.125</v>
+        <v>1620.125</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
@@ -61393,7 +61543,7 @@
         <v>50</v>
       </c>
       <c r="C5" s="20">
-        <v>1640.125</v>
+        <v>1620.125</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>146</v>
@@ -61435,17 +61585,23 @@
         <v>250</v>
       </c>
       <c r="C17">
-        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
-        <v>1640.125</v>
+        <v>59</v>
       </c>
       <c r="D17">
-        <f>GETPIVOTDATA("Story Points",$G$1)</f>
-        <v>0</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>251</v>
+      </c>
+      <c r="C18">
+        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
+        <v>1620.125</v>
+      </c>
+      <c r="D18">
+        <f>GETPIVOTDATA("Story Points",$G$1)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">

--- a/blueprint-jira-better-excel/Rocket-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Rocket-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{19DAD590-A8C6-4A63-A89A-9FAC920B4717}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{38389002-F655-4283-A009-6DD8C2C93018}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="30" r:id="rId19"/>
+    <pivotCache cacheId="15" r:id="rId19"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1482,6 +1482,46 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1644,46 +1684,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1849,10 +1849,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.43859649122807015</c:v>
+                  <c:v>0.53703703703703709</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56140350877192979</c:v>
+                  <c:v>0.46296296296296291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2267,19 +2267,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17543859649122806</c:v>
+                  <c:v>0.18518518518518517</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35087719298245612</c:v>
+                  <c:v>0.37037037037037035</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52631578947368418</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70175438596491224</c:v>
+                  <c:v>0.7407407407407407</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82456140350877194</c:v>
+                  <c:v>0.81481481481481477</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -3712,19 +3712,19 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.228070175438596</c:v>
+                  <c:v>40.740740740740748</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.456140350877192</c:v>
+                  <c:v>31.481481481481481</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.684210526315791</c:v>
+                  <c:v>22.222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.912280701754387</c:v>
+                  <c:v>12.962962962962965</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7719298245614024</c:v>
+                  <c:v>9.2592592592592613</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -5007,10 +5007,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.43859649122807015</c:v>
+                  <c:v>0.53703703703703709</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56140350877192979</c:v>
+                  <c:v>0.46296296296296291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5431,19 +5431,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17543859649122806</c:v>
+                  <c:v>0.18518518518518517</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35087719298245612</c:v>
+                  <c:v>0.37037037037037035</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52631578947368418</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70175438596491224</c:v>
+                  <c:v>0.7407407407407407</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82456140350877194</c:v>
+                  <c:v>0.81481481481481477</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -6894,19 +6894,19 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.228070175438596</c:v>
+                  <c:v>40.740740740740748</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.456140350877192</c:v>
+                  <c:v>31.481481481481481</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.684210526315791</c:v>
+                  <c:v>22.222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.912280701754387</c:v>
+                  <c:v>12.962962962962965</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7719298245614024</c:v>
+                  <c:v>9.2592592592592613</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -8360,10 +8360,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.43859649122807015</c:v>
+                  <c:v>0.53703703703703709</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56140350877192979</c:v>
+                  <c:v>0.46296296296296291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8778,19 +8778,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17543859649122806</c:v>
+                  <c:v>0.18518518518518517</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35087719298245612</c:v>
+                  <c:v>0.37037037037037035</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52631578947368418</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70175438596491224</c:v>
+                  <c:v>0.7407407407407407</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82456140350877194</c:v>
+                  <c:v>0.81481481481481477</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -9222,19 +9222,19 @@
                   <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.842105263157897</c:v>
+                  <c:v>61.111111111111114</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.684210526315788</c:v>
+                  <c:v>47.222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.526315789473685</c:v>
+                  <c:v>33.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.368421052631582</c:v>
+                  <c:v>19.444444444444446</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.157894736842104</c:v>
+                  <c:v>13.888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -14992,19 +14992,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17543859649122806</c:v>
+                  <c:v>0.18518518518518517</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35087719298245612</c:v>
+                  <c:v>0.37037037037037035</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52631578947368418</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70175438596491224</c:v>
+                  <c:v>0.7407407407407407</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82456140350877194</c:v>
+                  <c:v>0.81481481481481477</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -20040,19 +20040,19 @@
                   <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>235</c:v>
+                  <c:v>232.22222222222223</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>185</c:v>
+                  <c:v>179.44444444444446</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>135</c:v>
+                  <c:v>126.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85.000000000000014</c:v>
+                  <c:v>73.8888888888889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>52.777777777777793</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -22194,10 +22194,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.43859649122807015</c:v>
+                  <c:v>0.53703703703703709</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56140350877192979</c:v>
+                  <c:v>0.46296296296296291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41004,7 +41004,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>44%</a:t>
+            <a:t>54%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41644,7 +41644,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>44%</a:t>
+            <a:t>54%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42320,7 +42320,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>44%</a:t>
+            <a:t>54%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42827,7 +42827,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>44%</a:t>
+            <a:t>54%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42844,7 +42844,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43431.573580671298" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43437.383171180554" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -43091,8 +43091,8 @@
         <s v="${issue.fixVersions.name}"/>
         <m/>
         <s v="Rocket"/>
+        <s v="Pegasus" u="1"/>
         <s v="Quasar" u="1"/>
-        <s v="Pegasus" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Priority" numFmtId="0">
@@ -48317,8 +48317,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48358,7 +48358,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -48378,8 +48378,347 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="6">
         <item x="0"/>
+        <item m="1" x="3"/>
         <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
         <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="4" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="21">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
         <item x="1"/>
         <item x="2"/>
         <item t="default"/>
@@ -48411,116 +48750,7 @@
   <pageFields count="3">
     <pageField fld="32" item="4" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="5" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="3" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
+    <pageField fld="10" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
@@ -48538,136 +48768,337 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
       <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="7"/>
         <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="8">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
         <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="8"/>
         <item x="1"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="10"/>
+    <field x="44"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="9">
     <i>
       <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
     </i>
     <i>
       <x v="3"/>
     </i>
     <i>
+      <x v="4"/>
+    </i>
+    <i>
       <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
+  <pageFields count="1">
+    <pageField fld="1" item="2" hier="-1"/>
   </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
   </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -48681,7 +49112,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AL10:AP16" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -48742,8 +49173,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="6">
         <item x="0"/>
+        <item m="1" x="3"/>
         <item m="1" x="4"/>
-        <item m="1" x="3"/>
         <item x="1"/>
         <item x="2"/>
         <item t="default"/>
@@ -48833,7 +49264,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -48939,7 +49370,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G5:H6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField showAll="0"/>
@@ -48977,8 +49408,8 @@
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="6">
         <item h="1" x="0"/>
-        <item h="1" m="1" x="4"/>
-        <item m="1" x="3"/>
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="4"/>
         <item x="2"/>
         <item h="1" x="1"/>
         <item t="default"/>
@@ -49067,7 +49498,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49117,8 +49548,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="6">
         <item x="0"/>
+        <item m="1" x="3"/>
         <item m="1" x="4"/>
-        <item m="1" x="3"/>
         <item x="1"/>
         <item x="2"/>
         <item t="default"/>
@@ -49306,7 +49737,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B5:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49539,7 +49970,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49828,7 +50259,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="B29:C36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -49977,8 +50408,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="6">
         <item x="0"/>
+        <item m="1" x="3"/>
         <item m="1" x="4"/>
-        <item m="1" x="3"/>
         <item x="1"/>
         <item x="2"/>
         <item t="default"/>
@@ -50091,7 +50522,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -50204,8 +50635,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="6">
         <item x="0"/>
+        <item m="1" x="3"/>
         <item m="1" x="4"/>
-        <item m="1" x="3"/>
         <item x="1"/>
         <item x="2"/>
         <item t="default"/>
@@ -50512,8 +50943,303 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
-  <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="14">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="12"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item m="1" x="10"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="12">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -50537,6 +51263,115 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="3" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="8">
         <item x="0"/>
@@ -50573,8 +51408,929 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="6">
         <item x="0"/>
+        <item m="1" x="3"/>
         <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
         <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="5" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="5" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+  <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
         <item x="1"/>
         <item x="2"/>
         <item t="default"/>
@@ -50958,9 +52714,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -51020,1081 +52776,8 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="6">
         <item x="0"/>
+        <item m="1" x="3"/>
         <item m="1" x="4"/>
-        <item m="1" x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="14">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="12"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item m="1" x="10"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="35"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="12">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="11"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="12"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="5" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="3"/>
         <item x="1"/>
         <item x="2"/>
         <item t="default"/>
@@ -52143,710 +52826,27 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="44"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="4" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="D2:E4" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="D2:E4" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="D2:E4" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Start Date" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="End Date" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Start Date" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="End Date" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="Z2:Z5" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="Z2:Z5" xr:uid="{00000000-0009-0000-0100-000004000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="Z2:Z9" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="Z2:Z9" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Stabilization and Holidays" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Stabilization and Holidays" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -52875,10 +52875,10 @@
   </autoFilter>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Sprint"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Epics New" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Epics New" dataDxfId="6">
       <calculatedColumnFormula>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Stories Ready" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Stories Ready" dataDxfId="5">
       <calculatedColumnFormula>GETPIVOTDATA("Story Points",#REF!)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -52896,7 +52896,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Sprint" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="R&amp;D" totalsRowFunction="sum"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Total" totalsRowFunction="sum" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Total" totalsRowFunction="sum" dataDxfId="4">
       <calculatedColumnFormula>SUM(L7:L7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -58593,13 +58593,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.73046875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="22.46484375" bestFit="1" customWidth="1"/>
@@ -58670,8 +58670,8 @@
         <v>143</v>
       </c>
       <c r="B2" s="44">
-        <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$3:$Z$5)/NETWORKDAYS($D$3,$E$3,$Z$3:$Z$5),0%)</f>
-        <v>0.43859649122807015</v>
+        <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
+        <v>0.53703703703703709</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>130</v>
@@ -58749,7 +58749,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.56140350877192979</v>
+        <v>0.46296296296296291</v>
       </c>
       <c r="D3" s="26">
         <v>43397</v>
@@ -58805,7 +58805,7 @@
         <v>168</v>
       </c>
       <c r="Z3" s="32">
-        <v>43459</v>
+        <v>43458</v>
       </c>
       <c r="AB3" s="16" t="s">
         <v>289</v>
@@ -58830,16 +58830,16 @@
         <v>43410</v>
       </c>
       <c r="J4" s="35">
-        <f t="shared" ref="J4:J9" si="0">NETWORKDAYS(H4,I4,$Z$3:$Z$5)</f>
+        <f>NETWORKDAYS(H4,I4,$Z$4:$Z$9)</f>
         <v>10</v>
       </c>
       <c r="K4" s="36">
         <f>SUM($J$4:J4)/SUM($J$4:$J$9)</f>
-        <v>0.17543859649122806</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="L4" s="36">
         <f>SUM($J$4:J4)/SUM($J$4:$J$9)</f>
-        <v>0.17543859649122806</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="M4" s="66">
         <v>0.151</v>
@@ -58855,34 +58855,34 @@
       </c>
       <c r="Q4" s="40">
         <f>Q25*(100%-K4)</f>
-        <v>235</v>
+        <v>232.22222222222223</v>
       </c>
       <c r="R4" s="40">
         <v>306.8</v>
       </c>
       <c r="S4" s="42">
         <f>Q26*(100%-K4)</f>
-        <v>41.228070175438596</v>
+        <v>40.740740740740748</v>
       </c>
       <c r="T4" s="40">
         <v>37</v>
       </c>
       <c r="U4" s="40">
         <f>Q27*(100%-L4)</f>
-        <v>41.228070175438596</v>
+        <v>40.740740740740748</v>
       </c>
       <c r="V4" s="40">
         <v>37</v>
       </c>
       <c r="W4" s="40">
         <f>Q28*(100%-K4)</f>
-        <v>61.842105263157897</v>
+        <v>61.111111111111114</v>
       </c>
       <c r="X4" s="40">
         <v>72.8</v>
       </c>
       <c r="Z4" s="32">
-        <v>43460</v>
+        <v>43459</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.45">
@@ -58907,16 +58907,16 @@
         <v>43424</v>
       </c>
       <c r="J5" s="35">
-        <f t="shared" si="0"/>
+        <f>NETWORKDAYS(H5,I5,$Z$4:$Z$9)</f>
         <v>10</v>
       </c>
       <c r="K5" s="36">
         <f>SUM($J$4:J5)/SUM($J$4:$J$9)</f>
-        <v>0.35087719298245612</v>
+        <v>0.37037037037037035</v>
       </c>
       <c r="L5" s="36">
         <f>SUM($J$4:J5)/SUM($J$4:$J$9)</f>
-        <v>0.35087719298245612</v>
+        <v>0.37037037037037035</v>
       </c>
       <c r="M5" s="66">
         <v>0.35510000000000003</v>
@@ -58932,34 +58932,34 @@
       </c>
       <c r="Q5" s="40">
         <f>Q25*(100%-K5)</f>
-        <v>185</v>
+        <v>179.44444444444446</v>
       </c>
       <c r="R5" s="40">
         <v>207.5</v>
       </c>
       <c r="S5" s="42">
         <f>Q26*(100%-K5)</f>
-        <v>32.456140350877192</v>
+        <v>31.481481481481481</v>
       </c>
       <c r="T5" s="40">
         <v>17</v>
       </c>
       <c r="U5" s="40">
         <f>Q27*(100%-L5)</f>
-        <v>32.456140350877192</v>
+        <v>31.481481481481481</v>
       </c>
       <c r="V5" s="40">
         <v>28</v>
       </c>
       <c r="W5" s="40">
         <f>Q28*(100%-K5)</f>
-        <v>48.684210526315788</v>
+        <v>47.222222222222221</v>
       </c>
       <c r="X5" s="40">
         <v>48.5</v>
       </c>
       <c r="Z5" s="32">
-        <v>43466</v>
+        <v>43460</v>
       </c>
       <c r="AB5" s="16" t="s">
         <v>146</v>
@@ -58985,7 +58985,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43431</v>
+        <v>43437</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>243</v>
@@ -58999,16 +58999,16 @@
         <v>43438</v>
       </c>
       <c r="J6" s="35">
-        <f t="shared" si="0"/>
+        <f>NETWORKDAYS(H6,I6,$Z$4:$Z$9)</f>
         <v>10</v>
       </c>
       <c r="K6" s="36">
         <f>SUM($J$4:J6)/SUM($J$4:$J$9)</f>
-        <v>0.52631578947368418</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="L6" s="36">
         <f>SUM($J$4:J6)/SUM($J$4:$J$9)</f>
-        <v>0.52631578947368418</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="M6" s="66">
         <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
@@ -59028,7 +59028,7 @@
       </c>
       <c r="Q6" s="40">
         <f>Q25*(100%-K6)</f>
-        <v>135</v>
+        <v>126.66666666666666</v>
       </c>
       <c r="R6" s="40">
         <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
@@ -59036,7 +59036,7 @@
       </c>
       <c r="S6" s="42">
         <f>Q26*(100%-K6)</f>
-        <v>23.684210526315791</v>
+        <v>22.222222222222221</v>
       </c>
       <c r="T6" s="40" t="e">
         <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Cross Project Move")</f>
@@ -59044,7 +59044,7 @@
       </c>
       <c r="U6" s="40">
         <f>Q27*(100%-L6)</f>
-        <v>23.684210526315791</v>
+        <v>22.222222222222221</v>
       </c>
       <c r="V6" s="40">
         <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Excel Import")</f>
@@ -59052,13 +59052,15 @@
       </c>
       <c r="W6" s="40">
         <f>Q28*(100%-K6)</f>
-        <v>35.526315789473685</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="X6" s="40">
         <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
         <v>150</v>
       </c>
-      <c r="Z6" s="32"/>
+      <c r="Z6" s="32">
+        <v>43461</v>
+      </c>
       <c r="AB6" s="17" t="s">
         <v>193</v>
       </c>
@@ -59081,24 +59083,24 @@
         <v>244</v>
       </c>
       <c r="H7" s="24">
-        <f t="shared" ref="H7:H9" si="1">I6+1</f>
+        <f t="shared" ref="H7:H9" si="0">I6+1</f>
         <v>43439</v>
       </c>
       <c r="I7" s="24">
-        <f t="shared" ref="I7:I9" si="2">I6+14</f>
+        <f t="shared" ref="I7:I9" si="1">I6+14</f>
         <v>43452</v>
       </c>
       <c r="J7" s="35">
-        <f t="shared" si="0"/>
+        <f>NETWORKDAYS(H7,I7,$Z$4:$Z$9)</f>
         <v>10</v>
       </c>
       <c r="K7" s="36">
         <f>SUM($J$4:J7)/SUM($J$4:$J$9)</f>
-        <v>0.70175438596491224</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L7" s="36">
         <f>SUM($J$4:J7)/SUM($J$4:$J$9)</f>
-        <v>0.70175438596491224</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="M7" s="38"/>
       <c r="N7" s="38"/>
@@ -59106,25 +59108,27 @@
       <c r="P7" s="38"/>
       <c r="Q7" s="40">
         <f>Q25*(100%-K7)</f>
-        <v>85.000000000000014</v>
+        <v>73.8888888888889</v>
       </c>
       <c r="R7" s="41"/>
       <c r="S7" s="42">
         <f>Q26*(100%-K7)</f>
-        <v>14.912280701754387</v>
+        <v>12.962962962962965</v>
       </c>
       <c r="T7" s="41"/>
       <c r="U7" s="40">
         <f>Q27*(100%-L7)</f>
-        <v>14.912280701754387</v>
+        <v>12.962962962962965</v>
       </c>
       <c r="V7" s="41"/>
       <c r="W7" s="40">
         <f>Q28*(100%-K7)</f>
-        <v>22.368421052631582</v>
+        <v>19.444444444444446</v>
       </c>
       <c r="X7" s="41"/>
-      <c r="Z7" s="32"/>
+      <c r="Z7" s="32">
+        <v>43462</v>
+      </c>
       <c r="AB7" s="17" t="s">
         <v>185</v>
       </c>
@@ -59142,24 +59146,24 @@
         <v>245</v>
       </c>
       <c r="H8" s="24">
+        <f t="shared" si="0"/>
+        <v>43453</v>
+      </c>
+      <c r="I8" s="24">
         <f t="shared" si="1"/>
-        <v>43453</v>
-      </c>
-      <c r="I8" s="24">
-        <f t="shared" si="2"/>
         <v>43466</v>
       </c>
       <c r="J8" s="35">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>NETWORKDAYS(H8,I8,$Z$4:$Z$9)</f>
+        <v>4</v>
       </c>
       <c r="K8" s="36">
         <f>SUM($J$4:J8)/SUM($J$4:$J$9)</f>
-        <v>0.82456140350877194</v>
+        <v>0.81481481481481477</v>
       </c>
       <c r="L8" s="36">
         <f>SUM($J$4:J8)/SUM($J$4:$J$9)</f>
-        <v>0.82456140350877194</v>
+        <v>0.81481481481481477</v>
       </c>
       <c r="M8" s="38"/>
       <c r="N8" s="38"/>
@@ -59167,25 +59171,27 @@
       <c r="P8" s="38"/>
       <c r="Q8" s="40">
         <f>Q25*(100%-K8)</f>
-        <v>50</v>
+        <v>52.777777777777793</v>
       </c>
       <c r="R8" s="41"/>
       <c r="S8" s="42">
         <f>Q26*(100%-K8)</f>
-        <v>8.7719298245614024</v>
+        <v>9.2592592592592613</v>
       </c>
       <c r="T8" s="41"/>
       <c r="U8" s="40">
         <f>Q27*(100%-L8)</f>
-        <v>8.7719298245614024</v>
+        <v>9.2592592592592613</v>
       </c>
       <c r="V8" s="41"/>
       <c r="W8" s="40">
         <f>Q28*(100%-K8)</f>
-        <v>13.157894736842104</v>
+        <v>13.888888888888893</v>
       </c>
       <c r="X8" s="41"/>
-      <c r="Z8" s="32"/>
+      <c r="Z8" s="32">
+        <v>43465</v>
+      </c>
       <c r="AB8" s="17" t="s">
         <v>234</v>
       </c>
@@ -59207,15 +59213,15 @@
         <v>246</v>
       </c>
       <c r="H9" s="24">
+        <f t="shared" si="0"/>
+        <v>43467</v>
+      </c>
+      <c r="I9" s="24">
         <f t="shared" si="1"/>
-        <v>43467</v>
-      </c>
-      <c r="I9" s="24">
-        <f t="shared" si="2"/>
         <v>43480</v>
       </c>
       <c r="J9" s="35">
-        <f t="shared" si="0"/>
+        <f>NETWORKDAYS(H9,I9,$Z$4:$Z$9)</f>
         <v>10</v>
       </c>
       <c r="K9" s="36">
@@ -59250,7 +59256,9 @@
         <v>0</v>
       </c>
       <c r="X9" s="79"/>
-      <c r="Z9" s="32"/>
+      <c r="Z9" s="32">
+        <v>43466</v>
+      </c>
       <c r="AB9" s="17" t="s">
         <v>50</v>
       </c>
@@ -59544,8 +59552,8 @@
         <v>143</v>
       </c>
       <c r="B22" s="44">
-        <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$3:$Z$5)/NETWORKDAYS($D$3,$E$3,$Z$3:$Z$5),0%)</f>
-        <v>0.43859649122807015</v>
+        <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
+        <v>0.53703703703703709</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.45">
@@ -59554,7 +59562,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>0.56140350877192979</v>
+        <v>0.46296296296296291</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">
@@ -60172,22 +60180,22 @@
     <mergeCell ref="W1:X1"/>
   </mergeCells>
   <conditionalFormatting sqref="B41">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="notEqual">
       <formula>$A$41</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
       <formula>$D$42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
       <formula>$G$42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>$J$42</formula>
     </cfRule>
   </conditionalFormatting>

--- a/blueprint-jira-better-excel/Rocket-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Rocket-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{38389002-F655-4283-A009-6DD8C2C93018}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{0AA791E5-0DF7-4E22-8480-B65EDB0D8E7C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId19"/>
+    <pivotCache cacheId="17" r:id="rId19"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1482,44 +1482,10 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1529,12 +1495,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -1684,6 +1644,46 @@
           <color indexed="64"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1849,10 +1849,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.53703703703703709</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46296296296296291</c:v>
+                  <c:v>0.44444444444444442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2267,19 +2267,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18518518518518517</c:v>
+                  <c:v>0.18867924528301888</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37037037037037035</c:v>
+                  <c:v>0.37735849056603776</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>0.56603773584905659</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7407407407407407</c:v>
+                  <c:v>0.75471698113207553</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.81481481481481477</c:v>
+                  <c:v>0.81132075471698117</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -3712,19 +3712,19 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.740740740740748</c:v>
+                  <c:v>40.566037735849058</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.481481481481481</c:v>
+                  <c:v>31.132075471698112</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.222222222222221</c:v>
+                  <c:v>21.69811320754717</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.962962962962965</c:v>
+                  <c:v>12.264150943396224</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.2592592592592613</c:v>
+                  <c:v>9.4339622641509422</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -5007,10 +5007,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.53703703703703709</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46296296296296291</c:v>
+                  <c:v>0.44444444444444442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5431,19 +5431,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18518518518518517</c:v>
+                  <c:v>0.18867924528301888</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37037037037037035</c:v>
+                  <c:v>0.37735849056603776</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>0.56603773584905659</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7407407407407407</c:v>
+                  <c:v>0.75471698113207553</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.81481481481481477</c:v>
+                  <c:v>0.81132075471698117</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -6894,19 +6894,19 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.740740740740748</c:v>
+                  <c:v>40.566037735849058</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.481481481481481</c:v>
+                  <c:v>31.132075471698112</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.222222222222221</c:v>
+                  <c:v>21.69811320754717</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.962962962962965</c:v>
+                  <c:v>12.264150943396224</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.2592592592592613</c:v>
+                  <c:v>9.4339622641509422</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -8360,10 +8360,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.53703703703703709</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46296296296296291</c:v>
+                  <c:v>0.44444444444444442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8778,19 +8778,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18518518518518517</c:v>
+                  <c:v>0.18867924528301888</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37037037037037035</c:v>
+                  <c:v>0.37735849056603776</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>0.56603773584905659</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7407407407407407</c:v>
+                  <c:v>0.75471698113207553</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.81481481481481477</c:v>
+                  <c:v>0.81132075471698117</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -9222,19 +9222,19 @@
                   <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.111111111111114</c:v>
+                  <c:v>60.84905660377359</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.222222222222221</c:v>
+                  <c:v>46.698113207547166</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.333333333333329</c:v>
+                  <c:v>32.547169811320757</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.444444444444446</c:v>
+                  <c:v>18.396226415094336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.888888888888893</c:v>
+                  <c:v>14.150943396226412</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -14992,19 +14992,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18518518518518517</c:v>
+                  <c:v>0.18867924528301888</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37037037037037035</c:v>
+                  <c:v>0.37735849056603776</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>0.56603773584905659</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7407407407407407</c:v>
+                  <c:v>0.75471698113207553</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.81481481481481477</c:v>
+                  <c:v>0.81132075471698117</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -20040,19 +20040,19 @@
                   <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>232.22222222222223</c:v>
+                  <c:v>231.22641509433964</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>179.44444444444446</c:v>
+                  <c:v>177.45283018867923</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>126.66666666666666</c:v>
+                  <c:v>123.67924528301887</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>73.8888888888889</c:v>
+                  <c:v>69.905660377358473</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.777777777777793</c:v>
+                  <c:v>53.773584905660364</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -22194,10 +22194,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.53703703703703709</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46296296296296291</c:v>
+                  <c:v>0.44444444444444442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41004,7 +41004,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>54%</a:t>
+            <a:t>56%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41644,7 +41644,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>54%</a:t>
+            <a:t>56%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42320,7 +42320,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>54%</a:t>
+            <a:t>56%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42827,7 +42827,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>54%</a:t>
+            <a:t>56%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42844,7 +42844,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43437.383171180554" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43438.488677662041" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -48317,3958 +48317,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="4" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="44"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AL10:AP16" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G5:H6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="2"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="37"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" hier="-1"/>
-    <pageField fld="46" item="2" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="10" format="49" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="50">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="51">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="52">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="53">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="54">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="55">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="B5:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="33">
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" x="0"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="31"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="31">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="8"/>
-        <item m="1" x="26"/>
-        <item m="1" x="20"/>
-        <item m="1" x="15"/>
-        <item m="1" x="12"/>
-        <item m="1" x="9"/>
-        <item m="1" x="27"/>
-        <item m="1" x="14"/>
-        <item m="1" x="29"/>
-        <item m="1" x="24"/>
-        <item m="1" x="18"/>
-        <item m="1" x="13"/>
-        <item m="1" x="10"/>
-        <item m="1" x="16"/>
-        <item m="1" x="17"/>
-        <item m="1" x="19"/>
-        <item m="1" x="21"/>
-        <item m="1" x="22"/>
-        <item m="1" x="23"/>
-        <item m="1" x="25"/>
-        <item m="1" x="28"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="26" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:C36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="33">
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" x="0"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="31"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item h="1" x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="28">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="29">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="14">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="12"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item m="1" x="10"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="35"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="12">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="11"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="12"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="3" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="5" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="5" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="17" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52714,8 +48763,2060 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="17" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="5" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="17" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="3" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AL10:AP16" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G5:H6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="2"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="37"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" hier="-1"/>
+    <pageField fld="46" item="2" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="10" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="50">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="51">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="52">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="55">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B5:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="33">
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" x="0"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="31"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="31">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="8"/>
+        <item m="1" x="26"/>
+        <item m="1" x="20"/>
+        <item m="1" x="15"/>
+        <item m="1" x="12"/>
+        <item m="1" x="9"/>
+        <item m="1" x="27"/>
+        <item m="1" x="14"/>
+        <item m="1" x="29"/>
+        <item m="1" x="24"/>
+        <item m="1" x="18"/>
+        <item m="1" x="13"/>
+        <item m="1" x="10"/>
+        <item m="1" x="16"/>
+        <item m="1" x="17"/>
+        <item m="1" x="19"/>
+        <item m="1" x="21"/>
+        <item m="1" x="22"/>
+        <item m="1" x="23"/>
+        <item m="1" x="25"/>
+        <item m="1" x="28"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="30" item="26" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:C36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="33">
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" x="0"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="31"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="31" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="17" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52826,27 +50927,1926 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="17" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="5" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="17" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="44"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="17" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="17" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="4" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="21">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="14">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="12"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item m="1" x="10"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="12">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="D2:E4" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="D2:E4" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="D2:E4" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Start Date" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="End Date" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Start Date" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="End Date" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="Z2:Z9" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="Z2:Z9" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="Z2:Z9" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Stabilization and Holidays" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Stabilization and Holidays" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -52875,10 +52875,10 @@
   </autoFilter>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Sprint"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Epics New" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Epics New" dataDxfId="4">
       <calculatedColumnFormula>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Stories Ready" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Stories Ready" dataDxfId="3">
       <calculatedColumnFormula>GETPIVOTDATA("Story Points",#REF!)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -52896,7 +52896,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Sprint" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="R&amp;D" totalsRowFunction="sum"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Total" totalsRowFunction="sum" dataDxfId="4">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Total" totalsRowFunction="sum" dataDxfId="2">
       <calculatedColumnFormula>SUM(L7:L7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -55351,7 +55351,7 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.06640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.06640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
@@ -58593,11 +58593,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.06640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.73046875" bestFit="1" customWidth="1"/>
@@ -58671,7 +58671,7 @@
       </c>
       <c r="B2" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.53703703703703709</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>130</v>
@@ -58749,7 +58749,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.46296296296296291</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="D3" s="26">
         <v>43397</v>
@@ -58830,16 +58830,16 @@
         <v>43410</v>
       </c>
       <c r="J4" s="35">
-        <f>NETWORKDAYS(H4,I4,$Z$4:$Z$9)</f>
+        <f>NETWORKDAYS(H4,I4,$Z$3:$Z$9)</f>
         <v>10</v>
       </c>
       <c r="K4" s="36">
         <f>SUM($J$4:J4)/SUM($J$4:$J$9)</f>
-        <v>0.18518518518518517</v>
+        <v>0.18867924528301888</v>
       </c>
       <c r="L4" s="36">
         <f>SUM($J$4:J4)/SUM($J$4:$J$9)</f>
-        <v>0.18518518518518517</v>
+        <v>0.18867924528301888</v>
       </c>
       <c r="M4" s="66">
         <v>0.151</v>
@@ -58855,28 +58855,28 @@
       </c>
       <c r="Q4" s="40">
         <f>Q25*(100%-K4)</f>
-        <v>232.22222222222223</v>
+        <v>231.22641509433964</v>
       </c>
       <c r="R4" s="40">
         <v>306.8</v>
       </c>
       <c r="S4" s="42">
         <f>Q26*(100%-K4)</f>
-        <v>40.740740740740748</v>
+        <v>40.566037735849058</v>
       </c>
       <c r="T4" s="40">
         <v>37</v>
       </c>
       <c r="U4" s="40">
         <f>Q27*(100%-L4)</f>
-        <v>40.740740740740748</v>
+        <v>40.566037735849058</v>
       </c>
       <c r="V4" s="40">
         <v>37</v>
       </c>
       <c r="W4" s="40">
         <f>Q28*(100%-K4)</f>
-        <v>61.111111111111114</v>
+        <v>60.84905660377359</v>
       </c>
       <c r="X4" s="40">
         <v>72.8</v>
@@ -58907,16 +58907,16 @@
         <v>43424</v>
       </c>
       <c r="J5" s="35">
-        <f>NETWORKDAYS(H5,I5,$Z$4:$Z$9)</f>
+        <f>NETWORKDAYS(H5,I5,$Z$3:$Z$9)</f>
         <v>10</v>
       </c>
       <c r="K5" s="36">
         <f>SUM($J$4:J5)/SUM($J$4:$J$9)</f>
-        <v>0.37037037037037035</v>
+        <v>0.37735849056603776</v>
       </c>
       <c r="L5" s="36">
         <f>SUM($J$4:J5)/SUM($J$4:$J$9)</f>
-        <v>0.37037037037037035</v>
+        <v>0.37735849056603776</v>
       </c>
       <c r="M5" s="66">
         <v>0.35510000000000003</v>
@@ -58932,28 +58932,28 @@
       </c>
       <c r="Q5" s="40">
         <f>Q25*(100%-K5)</f>
-        <v>179.44444444444446</v>
+        <v>177.45283018867923</v>
       </c>
       <c r="R5" s="40">
         <v>207.5</v>
       </c>
       <c r="S5" s="42">
         <f>Q26*(100%-K5)</f>
-        <v>31.481481481481481</v>
+        <v>31.132075471698112</v>
       </c>
       <c r="T5" s="40">
         <v>17</v>
       </c>
       <c r="U5" s="40">
         <f>Q27*(100%-L5)</f>
-        <v>31.481481481481481</v>
+        <v>31.132075471698112</v>
       </c>
       <c r="V5" s="40">
         <v>28</v>
       </c>
       <c r="W5" s="40">
         <f>Q28*(100%-K5)</f>
-        <v>47.222222222222221</v>
+        <v>46.698113207547166</v>
       </c>
       <c r="X5" s="40">
         <v>48.5</v>
@@ -58985,7 +58985,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43437</v>
+        <v>43438</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>243</v>
@@ -58999,16 +58999,16 @@
         <v>43438</v>
       </c>
       <c r="J6" s="35">
-        <f>NETWORKDAYS(H6,I6,$Z$4:$Z$9)</f>
+        <f>NETWORKDAYS(H6,I6,$Z$3:$Z$9)</f>
         <v>10</v>
       </c>
       <c r="K6" s="36">
         <f>SUM($J$4:J6)/SUM($J$4:$J$9)</f>
-        <v>0.55555555555555558</v>
+        <v>0.56603773584905659</v>
       </c>
       <c r="L6" s="36">
         <f>SUM($J$4:J6)/SUM($J$4:$J$9)</f>
-        <v>0.55555555555555558</v>
+        <v>0.56603773584905659</v>
       </c>
       <c r="M6" s="66">
         <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
@@ -59028,7 +59028,7 @@
       </c>
       <c r="Q6" s="40">
         <f>Q25*(100%-K6)</f>
-        <v>126.66666666666666</v>
+        <v>123.67924528301887</v>
       </c>
       <c r="R6" s="40">
         <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
@@ -59036,7 +59036,7 @@
       </c>
       <c r="S6" s="42">
         <f>Q26*(100%-K6)</f>
-        <v>22.222222222222221</v>
+        <v>21.69811320754717</v>
       </c>
       <c r="T6" s="40" t="e">
         <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Cross Project Move")</f>
@@ -59044,7 +59044,7 @@
       </c>
       <c r="U6" s="40">
         <f>Q27*(100%-L6)</f>
-        <v>22.222222222222221</v>
+        <v>21.69811320754717</v>
       </c>
       <c r="V6" s="40">
         <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Excel Import")</f>
@@ -59052,7 +59052,7 @@
       </c>
       <c r="W6" s="40">
         <f>Q28*(100%-K6)</f>
-        <v>33.333333333333329</v>
+        <v>32.547169811320757</v>
       </c>
       <c r="X6" s="40">
         <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
@@ -59091,16 +59091,16 @@
         <v>43452</v>
       </c>
       <c r="J7" s="35">
-        <f>NETWORKDAYS(H7,I7,$Z$4:$Z$9)</f>
+        <f>NETWORKDAYS(H7,I7,$Z$3:$Z$9)</f>
         <v>10</v>
       </c>
       <c r="K7" s="36">
         <f>SUM($J$4:J7)/SUM($J$4:$J$9)</f>
-        <v>0.7407407407407407</v>
+        <v>0.75471698113207553</v>
       </c>
       <c r="L7" s="36">
         <f>SUM($J$4:J7)/SUM($J$4:$J$9)</f>
-        <v>0.7407407407407407</v>
+        <v>0.75471698113207553</v>
       </c>
       <c r="M7" s="38"/>
       <c r="N7" s="38"/>
@@ -59108,22 +59108,22 @@
       <c r="P7" s="38"/>
       <c r="Q7" s="40">
         <f>Q25*(100%-K7)</f>
-        <v>73.8888888888889</v>
+        <v>69.905660377358473</v>
       </c>
       <c r="R7" s="41"/>
       <c r="S7" s="42">
         <f>Q26*(100%-K7)</f>
-        <v>12.962962962962965</v>
+        <v>12.264150943396224</v>
       </c>
       <c r="T7" s="41"/>
       <c r="U7" s="40">
         <f>Q27*(100%-L7)</f>
-        <v>12.962962962962965</v>
+        <v>12.264150943396224</v>
       </c>
       <c r="V7" s="41"/>
       <c r="W7" s="40">
         <f>Q28*(100%-K7)</f>
-        <v>19.444444444444446</v>
+        <v>18.396226415094336</v>
       </c>
       <c r="X7" s="41"/>
       <c r="Z7" s="32">
@@ -59154,16 +59154,16 @@
         <v>43466</v>
       </c>
       <c r="J8" s="35">
-        <f>NETWORKDAYS(H8,I8,$Z$4:$Z$9)</f>
-        <v>4</v>
+        <f>NETWORKDAYS(H8,I8,$Z$3:$Z$9)</f>
+        <v>3</v>
       </c>
       <c r="K8" s="36">
         <f>SUM($J$4:J8)/SUM($J$4:$J$9)</f>
-        <v>0.81481481481481477</v>
+        <v>0.81132075471698117</v>
       </c>
       <c r="L8" s="36">
         <f>SUM($J$4:J8)/SUM($J$4:$J$9)</f>
-        <v>0.81481481481481477</v>
+        <v>0.81132075471698117</v>
       </c>
       <c r="M8" s="38"/>
       <c r="N8" s="38"/>
@@ -59171,22 +59171,22 @@
       <c r="P8" s="38"/>
       <c r="Q8" s="40">
         <f>Q25*(100%-K8)</f>
-        <v>52.777777777777793</v>
+        <v>53.773584905660364</v>
       </c>
       <c r="R8" s="41"/>
       <c r="S8" s="42">
         <f>Q26*(100%-K8)</f>
-        <v>9.2592592592592613</v>
+        <v>9.4339622641509422</v>
       </c>
       <c r="T8" s="41"/>
       <c r="U8" s="40">
         <f>Q27*(100%-L8)</f>
-        <v>9.2592592592592613</v>
+        <v>9.4339622641509422</v>
       </c>
       <c r="V8" s="41"/>
       <c r="W8" s="40">
         <f>Q28*(100%-K8)</f>
-        <v>13.888888888888893</v>
+        <v>14.150943396226412</v>
       </c>
       <c r="X8" s="41"/>
       <c r="Z8" s="32">
@@ -59221,7 +59221,7 @@
         <v>43480</v>
       </c>
       <c r="J9" s="35">
-        <f>NETWORKDAYS(H9,I9,$Z$4:$Z$9)</f>
+        <f>NETWORKDAYS(H9,I9,$Z$3:$Z$9)</f>
         <v>10</v>
       </c>
       <c r="K9" s="36">
@@ -59553,7 +59553,7 @@
       </c>
       <c r="B22" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.53703703703703709</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.45">
@@ -59562,7 +59562,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>0.46296296296296291</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">
@@ -60180,22 +60180,22 @@
     <mergeCell ref="W1:X1"/>
   </mergeCells>
   <conditionalFormatting sqref="B41">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="notEqual">
       <formula>$A$41</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="notEqual">
       <formula>$D$42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="notEqual">
       <formula>$G$42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="notEqual">
       <formula>$J$42</formula>
     </cfRule>
   </conditionalFormatting>

--- a/blueprint-jira-better-excel/Rocket-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Rocket-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{0AA791E5-0DF7-4E22-8480-B65EDB0D8E7C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{9CA49C78-AF29-4AE4-9ABB-1C2F9DCC4FF5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId19"/>
+    <pivotCache cacheId="15" r:id="rId19"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -1482,10 +1482,7 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1494,7 +1491,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -1849,10 +1849,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>0.57407407407407407</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44444444444444442</c:v>
+                  <c:v>0.42592592592592593</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2362,6 +2362,9 @@
                   <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3807,6 +3810,9 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4155,6 +4161,9 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4231,6 +4240,9 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4309,6 +4321,9 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4385,6 +4400,9 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5007,10 +5025,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>0.57407407407407407</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44444444444444442</c:v>
+                  <c:v>0.42592592592592593</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5526,6 +5544,9 @@
                   <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -6989,6 +7010,9 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -7555,6 +7579,9 @@
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -7631,6 +7658,9 @@
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7709,6 +7739,9 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -7785,6 +7818,9 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -8360,10 +8396,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>0.57407407407407407</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44444444444444442</c:v>
+                  <c:v>0.42592592592592593</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8873,6 +8909,9 @@
                   <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -9317,6 +9356,9 @@
                   <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -9673,6 +9715,9 @@
                   <c:v>82.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>81.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -9749,6 +9794,9 @@
                   <c:v>82.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>81.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9827,6 +9875,9 @@
                   <c:v>79.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>76.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9903,6 +9954,9 @@
                   <c:v>34.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>48.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -11315,6 +11369,9 @@
                   <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1620.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -11447,6 +11504,9 @@
                   <c:v>94.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>90.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -14737,6 +14797,7 @@
         <c:axId val="1038995487"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -15087,6 +15148,9 @@
                   <c:v>0.35510000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.49530000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.83334490660370808</c:v>
                 </c:pt>
               </c:numCache>
@@ -15321,7 +15385,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Sprint Rocket3 Progress</c:v>
+              <c:v>Sprint Rocket4 Progress</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -15810,7 +15874,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -20135,6 +20199,9 @@
                   <c:v>207.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>173.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
@@ -20483,6 +20550,9 @@
                   <c:v>321.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>343.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1800.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -20559,6 +20629,9 @@
                   <c:v>276.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>343.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -20637,6 +20710,9 @@
                   <c:v>262.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>320.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -20713,6 +20789,9 @@
                   <c:v>114.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>170.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1500.125</c:v>
                 </c:pt>
               </c:numCache>
@@ -22194,10 +22273,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>0.57407407407407407</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44444444444444442</c:v>
+                  <c:v>0.42592592592592593</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41004,7 +41083,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>56%</a:t>
+            <a:t>57%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41382,7 +41461,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>26</a:t>
+            <a:t>16</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -41644,7 +41723,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>56%</a:t>
+            <a:t>57%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42320,7 +42399,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>56%</a:t>
+            <a:t>57%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42827,7 +42906,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>56%</a:t>
+            <a:t>57%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42844,7 +42923,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43438.488677662041" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43439.354840624997" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -44620,7 +44699,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44669,7 +44748,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44718,7 +44797,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44767,7 +44846,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44816,7 +44895,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44865,7 +44944,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -44914,7 +44993,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -48317,7 +48396,2888 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="17" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="14">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="12"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item m="1" x="10"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="12">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="35" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="4" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="21">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AL10:AP16" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G5:H6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="2"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="37"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" hier="-1"/>
+    <pageField fld="46" item="2" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="10" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="50">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="51">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="52">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="55">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B5:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="33">
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" x="0"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="31"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="31">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="8"/>
+        <item m="1" x="26"/>
+        <item m="1" x="20"/>
+        <item m="1" x="15"/>
+        <item m="1" x="12"/>
+        <item m="1" x="9"/>
+        <item m="1" x="27"/>
+        <item m="1" x="14"/>
+        <item m="1" x="29"/>
+        <item m="1" x="24"/>
+        <item m="1" x="18"/>
+        <item m="1" x="13"/>
+        <item m="1" x="10"/>
+        <item m="1" x="16"/>
+        <item m="1" x="17"/>
+        <item m="1" x="19"/>
+        <item m="1" x="21"/>
+        <item m="1" x="22"/>
+        <item m="1" x="23"/>
+        <item m="1" x="25"/>
+        <item m="1" x="28"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="30" item="27" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:C36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="33">
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" x="0"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="31"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="31" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="4" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -48763,120 +51723,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="17" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="5" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="17" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -48984,1840 +51832,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AL10:AP16" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G5:H6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="2"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="37"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" hier="-1"/>
-    <pageField fld="46" item="2" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="10" format="49" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="50">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="51">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="52">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="53">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="54">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="55">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="B5:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="33">
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" x="0"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="31"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="31">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="8"/>
-        <item m="1" x="26"/>
-        <item m="1" x="20"/>
-        <item m="1" x="15"/>
-        <item m="1" x="12"/>
-        <item m="1" x="9"/>
-        <item m="1" x="27"/>
-        <item m="1" x="14"/>
-        <item m="1" x="29"/>
-        <item m="1" x="24"/>
-        <item m="1" x="18"/>
-        <item m="1" x="13"/>
-        <item m="1" x="10"/>
-        <item m="1" x="16"/>
-        <item m="1" x="17"/>
-        <item m="1" x="19"/>
-        <item m="1" x="21"/>
-        <item m="1" x="22"/>
-        <item m="1" x="23"/>
-        <item m="1" x="25"/>
-        <item m="1" x="28"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="26" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item h="1" x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="28">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="29">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:C36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="33">
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" x="0"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="31"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="17" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -50910,7 +51927,7 @@
   <pageFields count="3">
     <pageField fld="32" item="4" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="4" hier="-1"/>
+    <pageField fld="10" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
@@ -50927,8 +51944,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="17" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
   <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51320,9 +52337,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="17" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -51415,7 +52432,7 @@
   <pageFields count="3">
     <pageField fld="32" item="4" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="2" hier="-1"/>
+    <pageField fld="10" item="4" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
@@ -51432,9 +52449,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -51458,12 +52475,12 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="8">
         <item x="0"/>
-        <item x="1"/>
         <item x="5"/>
         <item x="4"/>
+        <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="6"/>
@@ -51475,22 +52492,22 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="6">
         <item x="0"/>
@@ -51502,7 +52519,7 @@
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51513,55 +52530,24 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
+  <rowItems count="1">
+    <i/>
   </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
   <pageFields count="3">
     <pageField fld="32" item="4" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
+    <pageField fld="10" item="5" hier="-1"/>
   </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -51575,8 +52561,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField showAll="0"/>
@@ -51919,913 +52905,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="17" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="17" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="4" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="14">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="12"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item m="1" x="10"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="35"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="12">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="11"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="12"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="D2:E4" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="D2:E4" xr:uid="{00000000-0009-0000-0100-000002000000}">
@@ -52841,12 +52920,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="Z2:Z9" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="Z2:Z9" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="Z2:Z9" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Stabilization and Holidays" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Stabilization and Holidays" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -52875,10 +52954,10 @@
   </autoFilter>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Sprint"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Epics New" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Epics New" dataDxfId="2">
       <calculatedColumnFormula>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Stories Ready" dataDxfId="3">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Stories Ready" dataDxfId="1">
       <calculatedColumnFormula>GETPIVOTDATA("Story Points",#REF!)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -52896,7 +52975,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Sprint" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="R&amp;D" totalsRowFunction="sum"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Total" totalsRowFunction="sum" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Total" totalsRowFunction="sum" dataDxfId="0">
       <calculatedColumnFormula>SUM(L7:L7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -55087,9 +55166,12 @@
       <c r="K9" t="s">
         <v>243</v>
       </c>
+      <c r="L9">
+        <v>59.5</v>
+      </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.45">
@@ -55143,11 +55225,11 @@
       </c>
       <c r="L13">
         <f>SUBTOTAL(109,Table1[R&amp;D])</f>
-        <v>121.25</v>
+        <v>180.75</v>
       </c>
       <c r="M13">
         <f>SUBTOTAL(109,Table1[Total])</f>
-        <v>121.25</v>
+        <v>180.75</v>
       </c>
     </row>
   </sheetData>
@@ -55193,7 +55275,7 @@
       </c>
       <c r="B1" t="str">
         <f>$E$2</f>
-        <v>Rocket3</v>
+        <v>Rocket4</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>9</v>
@@ -55207,7 +55289,7 @@
         <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -55247,7 +55329,7 @@
         <v>154</v>
       </c>
       <c r="E8" s="20">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -55287,7 +55369,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="20">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -55296,7 +55378,7 @@
       </c>
       <c r="E15">
         <f>GETPIVOTDATA("Story Points", $D$5)</f>
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -55305,7 +55387,7 @@
       </c>
       <c r="E16" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Quasar", "") &amp; " Progress"</f>
-        <v>Sprint Rocket3 Progress</v>
+        <v>Sprint Rocket4 Progress</v>
       </c>
     </row>
   </sheetData>
@@ -56696,7 +56778,7 @@
       </c>
       <c r="AE30" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Rocket3</v>
+        <v>Rocket4</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>153</v>
@@ -56720,7 +56802,7 @@
       </c>
       <c r="AE31" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Rocket3</v>
+        <v>Rocket4</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>182</v>
@@ -56744,7 +56826,7 @@
       </c>
       <c r="AE32" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Rocket3</v>
+        <v>Rocket4</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>154</v>
@@ -56768,7 +56850,7 @@
       </c>
       <c r="AE33" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Rocket3</v>
+        <v>Rocket4</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>155</v>
@@ -56792,7 +56874,7 @@
       </c>
       <c r="AE34" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Rocket3</v>
+        <v>Rocket4</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>157</v>
@@ -56816,7 +56898,7 @@
       </c>
       <c r="AE35" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Rocket3</v>
+        <v>Rocket4</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>156</v>
@@ -56837,7 +56919,7 @@
       </c>
       <c r="AE36" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Rocket3</v>
+        <v>Rocket4</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>158</v>
@@ -58593,8 +58675,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.06640625" bestFit="1" customWidth="1"/>
@@ -58671,7 +58753,7 @@
       </c>
       <c r="B2" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.55555555555555558</v>
+        <v>0.57407407407407407</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>130</v>
@@ -58749,7 +58831,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.44444444444444442</v>
+        <v>0.42592592592592593</v>
       </c>
       <c r="D3" s="26">
         <v>43397</v>
@@ -58830,7 +58912,7 @@
         <v>43410</v>
       </c>
       <c r="J4" s="35">
-        <f>NETWORKDAYS(H4,I4,$Z$3:$Z$9)</f>
+        <f t="shared" ref="J4:J9" si="0">NETWORKDAYS(H4,I4,$Z$3:$Z$9)</f>
         <v>10</v>
       </c>
       <c r="K4" s="36">
@@ -58841,7 +58923,7 @@
         <f>SUM($J$4:J4)/SUM($J$4:$J$9)</f>
         <v>0.18867924528301888</v>
       </c>
-      <c r="M4" s="66">
+      <c r="M4" s="65">
         <v>0.151</v>
       </c>
       <c r="N4" s="33">
@@ -58907,7 +58989,7 @@
         <v>43424</v>
       </c>
       <c r="J5" s="35">
-        <f>NETWORKDAYS(H5,I5,$Z$3:$Z$9)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K5" s="36">
@@ -58918,7 +59000,7 @@
         <f>SUM($J$4:J5)/SUM($J$4:$J$9)</f>
         <v>0.37735849056603776</v>
       </c>
-      <c r="M5" s="66">
+      <c r="M5" s="65">
         <v>0.35510000000000003</v>
       </c>
       <c r="N5" s="33">
@@ -58985,7 +59067,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43438</v>
+        <v>43439</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>243</v>
@@ -58999,7 +59081,7 @@
         <v>43438</v>
       </c>
       <c r="J6" s="35">
-        <f>NETWORKDAYS(H6,I6,$Z$3:$Z$9)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K6" s="36">
@@ -59010,53 +59092,45 @@
         <f>SUM($J$4:J6)/SUM($J$4:$J$9)</f>
         <v>0.56603773584905659</v>
       </c>
-      <c r="M6" s="66">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
-        <v>0.83334490660370808</v>
-      </c>
-      <c r="N6" s="33" t="e">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Cross Project Move")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Cross Project Move")</f>
-        <v>#REF!</v>
+      <c r="M6" s="65">
+        <v>0.49530000000000002</v>
+      </c>
+      <c r="N6" s="33">
+        <v>0.98</v>
       </c>
       <c r="O6" s="33">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Excel Import")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Excel Import")</f>
-        <v>0.25</v>
+        <v>0.54</v>
       </c>
       <c r="P6" s="33">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
-        <v>0.25</v>
+        <v>0.59</v>
       </c>
       <c r="Q6" s="40">
         <f>Q25*(100%-K6)</f>
         <v>123.67924528301887</v>
       </c>
       <c r="R6" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
-        <v>300</v>
+        <v>173.5</v>
       </c>
       <c r="S6" s="42">
         <f>Q26*(100%-K6)</f>
         <v>21.69811320754717</v>
       </c>
-      <c r="T6" s="40" t="e">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Cross Project Move")</f>
-        <v>#REF!</v>
+      <c r="T6" s="40">
+        <v>1</v>
       </c>
       <c r="U6" s="40">
         <f>Q27*(100%-L6)</f>
         <v>21.69811320754717</v>
       </c>
       <c r="V6" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Excel Import")</f>
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="W6" s="40">
         <f>Q28*(100%-K6)</f>
         <v>32.547169811320757</v>
       </c>
       <c r="X6" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
-        <v>150</v>
+        <v>33.5</v>
       </c>
       <c r="Z6" s="32">
         <v>43461</v>
@@ -59083,15 +59157,15 @@
         <v>244</v>
       </c>
       <c r="H7" s="24">
-        <f t="shared" ref="H7:H9" si="0">I6+1</f>
+        <f t="shared" ref="H7:H9" si="1">I6+1</f>
         <v>43439</v>
       </c>
       <c r="I7" s="24">
-        <f t="shared" ref="I7:I9" si="1">I6+14</f>
+        <f t="shared" ref="I7:I9" si="2">I6+14</f>
         <v>43452</v>
       </c>
       <c r="J7" s="35">
-        <f>NETWORKDAYS(H7,I7,$Z$3:$Z$9)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K7" s="36">
@@ -59102,30 +59176,54 @@
         <f>SUM($J$4:J7)/SUM($J$4:$J$9)</f>
         <v>0.75471698113207553</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
+      <c r="M7" s="65">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
+        <v>0.83334490660370808</v>
+      </c>
+      <c r="N7" s="33" t="e">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Cross Project Move")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Cross Project Move")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O7" s="33">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Excel Import")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Excel Import")</f>
+        <v>0.25</v>
+      </c>
+      <c r="P7" s="33">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
+        <v>0.25</v>
+      </c>
       <c r="Q7" s="40">
         <f>Q25*(100%-K7)</f>
         <v>69.905660377358473</v>
       </c>
-      <c r="R7" s="41"/>
+      <c r="R7" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
+        <v>300</v>
+      </c>
       <c r="S7" s="42">
         <f>Q26*(100%-K7)</f>
         <v>12.264150943396224</v>
       </c>
-      <c r="T7" s="41"/>
+      <c r="T7" s="40" t="e">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Cross Project Move")</f>
+        <v>#REF!</v>
+      </c>
       <c r="U7" s="40">
         <f>Q27*(100%-L7)</f>
         <v>12.264150943396224</v>
       </c>
-      <c r="V7" s="41"/>
+      <c r="V7" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Excel Import")</f>
+        <v>150</v>
+      </c>
       <c r="W7" s="40">
         <f>Q28*(100%-K7)</f>
         <v>18.396226415094336</v>
       </c>
-      <c r="X7" s="41"/>
+      <c r="X7" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Diagram Editor")</f>
+        <v>150</v>
+      </c>
       <c r="Z7" s="32">
         <v>43462</v>
       </c>
@@ -59146,15 +59244,15 @@
         <v>245</v>
       </c>
       <c r="H8" s="24">
+        <f t="shared" si="1"/>
+        <v>43453</v>
+      </c>
+      <c r="I8" s="24">
+        <f t="shared" si="2"/>
+        <v>43466</v>
+      </c>
+      <c r="J8" s="35">
         <f t="shared" si="0"/>
-        <v>43453</v>
-      </c>
-      <c r="I8" s="24">
-        <f t="shared" si="1"/>
-        <v>43466</v>
-      </c>
-      <c r="J8" s="35">
-        <f>NETWORKDAYS(H8,I8,$Z$3:$Z$9)</f>
         <v>3</v>
       </c>
       <c r="K8" s="36">
@@ -59213,15 +59311,15 @@
         <v>246</v>
       </c>
       <c r="H9" s="24">
+        <f t="shared" si="1"/>
+        <v>43467</v>
+      </c>
+      <c r="I9" s="24">
+        <f t="shared" si="2"/>
+        <v>43480</v>
+      </c>
+      <c r="J9" s="35">
         <f t="shared" si="0"/>
-        <v>43467</v>
-      </c>
-      <c r="I9" s="24">
-        <f t="shared" si="1"/>
-        <v>43480</v>
-      </c>
-      <c r="J9" s="35">
-        <f>NETWORKDAYS(H9,I9,$Z$3:$Z$9)</f>
         <v>10</v>
       </c>
       <c r="K9" s="36">
@@ -59553,7 +59651,7 @@
       </c>
       <c r="B22" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.55555555555555558</v>
+        <v>0.57407407407407407</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.45">
@@ -59562,7 +59660,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>0.44444444444444442</v>
+        <v>0.42592592592592593</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">
@@ -60793,132 +60891,116 @@
         <v>43438</v>
       </c>
       <c r="D6" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
-        <v>1800.125</v>
+        <v>343.8</v>
       </c>
       <c r="E6" s="58">
         <f>_ReleaseData!Q25</f>
         <v>285</v>
       </c>
       <c r="F6" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>343.8</v>
       </c>
       <c r="G6" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
-        <v>180</v>
+        <v>320.8</v>
       </c>
       <c r="H6" s="40">
         <f>D6-I6</f>
-        <v>1500.125</v>
+        <v>170.3</v>
       </c>
       <c r="I6" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
-        <v>300</v>
+        <v>173.5</v>
       </c>
       <c r="J6" s="33">
         <f t="shared" ref="J6" si="12" xml:space="preserve"> G6/D6</f>
-        <v>9.9993056037775155E-2</v>
+        <v>0.9331006399069226</v>
       </c>
       <c r="K6" s="33">
         <f xml:space="preserve"> H6/D6</f>
-        <v>0.83334490660370808</v>
-      </c>
-      <c r="L6" s="59" t="e">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Cross Project Move")</f>
-        <v>#REF!</v>
+        <v>0.49534613147178597</v>
+      </c>
+      <c r="L6" s="59">
+        <v>49</v>
       </c>
       <c r="M6" s="58">
         <f>_ReleaseData!Q26</f>
         <v>50</v>
       </c>
-      <c r="N6" s="40" t="e">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Cross Project Move")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O6" s="40" t="e">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Cross Project Move")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P6" s="40" t="e">
+      <c r="N6" s="40">
+        <v>49</v>
+      </c>
+      <c r="O6" s="40">
+        <v>49</v>
+      </c>
+      <c r="P6" s="40">
         <f>L6-Q6</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q6" s="40" t="e">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Cross Project Move")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R6" s="33" t="e">
+        <v>48</v>
+      </c>
+      <c r="Q6" s="40">
+        <v>1</v>
+      </c>
+      <c r="R6" s="33">
         <f t="shared" ref="R6" si="13" xml:space="preserve"> O6/L6</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S6" s="33" t="e">
+        <v>1</v>
+      </c>
+      <c r="S6" s="33">
         <f xml:space="preserve"> P6/L6</f>
-        <v>#REF!</v>
+        <v>0.97959183673469385</v>
       </c>
       <c r="T6" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Import")</f>
-        <v>200</v>
+        <v>52</v>
       </c>
       <c r="U6" s="58">
         <f>_ReleaseData!Q27</f>
         <v>50</v>
       </c>
       <c r="V6" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Import")</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="W6" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Excel Import")</f>
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="X6" s="40">
         <f>T6-Y6</f>
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="Y6" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Import")</f>
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="Z6" s="33">
         <f t="shared" ref="Z6" si="14" xml:space="preserve"> W6/T6</f>
-        <v>0.9</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="AA6" s="33">
         <f>X6/T6</f>
-        <v>0.25</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="AB6" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>200</v>
+        <v>81.8</v>
       </c>
       <c r="AC6" s="58">
         <f>_ReleaseData!Q28</f>
         <v>75</v>
       </c>
       <c r="AD6" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>0</v>
+        <v>81.8</v>
       </c>
       <c r="AE6" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>0</v>
+        <v>76.8</v>
       </c>
       <c r="AF6" s="40">
         <f>AB6-AG6</f>
-        <v>50</v>
+        <v>48.3</v>
       </c>
       <c r="AG6" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
-        <v>150</v>
+        <v>33.5</v>
       </c>
       <c r="AH6" s="33">
         <f t="shared" ref="AH6" si="15" xml:space="preserve"> AE6/AB6</f>
-        <v>0</v>
+        <v>0.93887530562347188</v>
       </c>
       <c r="AI6" s="33">
         <f>AF6/AB6</f>
-        <v>0.25</v>
+        <v>0.59046454767726164</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.45">
@@ -60931,50 +61013,134 @@
       <c r="C7" s="60">
         <v>43452</v>
       </c>
-      <c r="D7" s="57"/>
+      <c r="D7" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
+        <v>1800.125</v>
+      </c>
       <c r="E7" s="58">
         <f>_ReleaseData!Q25</f>
         <v>285</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="59"/>
+      <c r="F7" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
+        <v>180</v>
+      </c>
+      <c r="H7" s="40">
+        <f>D7-I7</f>
+        <v>1500.125</v>
+      </c>
+      <c r="I7" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
+        <v>300</v>
+      </c>
+      <c r="J7" s="33">
+        <f t="shared" ref="J7" si="16" xml:space="preserve"> G7/D7</f>
+        <v>9.9993056037775155E-2</v>
+      </c>
+      <c r="K7" s="33">
+        <f xml:space="preserve"> H7/D7</f>
+        <v>0.83334490660370808</v>
+      </c>
+      <c r="L7" s="59" t="e">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Cross Project Move")</f>
+        <v>#REF!</v>
+      </c>
       <c r="M7" s="58">
         <f>_ReleaseData!Q26</f>
         <v>50</v>
       </c>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="57"/>
+      <c r="N7" s="40" t="e">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Cross Project Move")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O7" s="40" t="e">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Cross Project Move")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P7" s="40" t="e">
+        <f>L7-Q7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q7" s="40" t="e">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Cross Project Move")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R7" s="33" t="e">
+        <f t="shared" ref="R7" si="17" xml:space="preserve"> O7/L7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S7" s="33" t="e">
+        <f xml:space="preserve"> P7/L7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T7" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Import")</f>
+        <v>200</v>
+      </c>
       <c r="U7" s="58">
         <f>_ReleaseData!Q27</f>
         <v>50</v>
       </c>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="57"/>
+      <c r="V7" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Import")</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Excel Import")</f>
+        <v>180</v>
+      </c>
+      <c r="X7" s="40">
+        <f>T7-Y7</f>
+        <v>50</v>
+      </c>
+      <c r="Y7" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Excel Import")</f>
+        <v>150</v>
+      </c>
+      <c r="Z7" s="33">
+        <f t="shared" ref="Z7" si="18" xml:space="preserve"> W7/T7</f>
+        <v>0.9</v>
+      </c>
+      <c r="AA7" s="33">
+        <f>X7/T7</f>
+        <v>0.25</v>
+      </c>
+      <c r="AB7" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>200</v>
+      </c>
       <c r="AC7" s="58">
         <f>_ReleaseData!Q28</f>
         <v>75</v>
       </c>
-      <c r="AD7" s="40"/>
-      <c r="AE7" s="40"/>
-      <c r="AF7" s="40"/>
-      <c r="AG7" s="40"/>
-      <c r="AH7" s="33"/>
-      <c r="AI7" s="33"/>
+      <c r="AD7" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="40">
+        <f>AB7-AG7</f>
+        <v>50</v>
+      </c>
+      <c r="AG7" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Diagram Editor")</f>
+        <v>150</v>
+      </c>
+      <c r="AH7" s="33">
+        <f t="shared" ref="AH7" si="19" xml:space="preserve"> AE7/AB7</f>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="33">
+        <f>AF7/AB7</f>
+        <v>0.25</v>
+      </c>
       <c r="AL7" s="16" t="s">
         <v>141</v>
       </c>
@@ -61604,17 +61770,23 @@
         <v>251</v>
       </c>
       <c r="C18">
-        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
-        <v>1620.125</v>
+        <v>23</v>
       </c>
       <c r="D18">
-        <f>GETPIVOTDATA("Story Points",$G$1)</f>
-        <v>0</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>252</v>
+      </c>
+      <c r="C19">
+        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
+        <v>1620.125</v>
+      </c>
+      <c r="D19">
+        <f>GETPIVOTDATA("Story Points",$G$1)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">

--- a/blueprint-jira-better-excel/Rocket-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Rocket-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{9CA49C78-AF29-4AE4-9ABB-1C2F9DCC4FF5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:180000_{E2D9694C-12A3-47DF-8EC7-700B9E08E88F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="293">
   <si>
     <t>Status</t>
   </si>
@@ -923,6 +923,9 @@
   </si>
   <si>
     <t>Bulk Edit</t>
+  </si>
+  <si>
+    <t>Custom P0/P1 Bugs: ${bpHelper.getCustomP0P1BugCount()}</t>
   </si>
 </sst>
 </file>
@@ -42923,7 +42926,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43439.354840624997" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43439.37713252315" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -48396,1176 +48399,23 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A54:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
       <items count="9">
         <item x="0"/>
         <item x="6"/>
+        <item x="7"/>
         <item x="2"/>
         <item x="4"/>
         <item x="3"/>
         <item x="5"/>
         <item x="1"/>
-        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="14">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="12"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item m="1" x="10"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="35"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="12">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="11"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="12"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="35" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="4" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="4" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AL10:AP16" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
- 